--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ImranH2\Desktop\Imran\Workspace_VFQA_New\VFQA\Framework\Storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KalivaradhanS\Desktop\Workspace_VFQA\VFQA-master\Framework\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="654">
   <si>
     <t>ObjectName</t>
   </si>
@@ -1974,6 +1974,24 @@
   </si>
   <si>
     <t>//button[@title='Payment Lines:New']</t>
+  </si>
+  <si>
+    <t>//a[text()='Real Time Balance']</t>
+  </si>
+  <si>
+    <t>RTB_Check_Button</t>
+  </si>
+  <si>
+    <t>//input[@aria-labelledby='Responsibility_Label']</t>
+  </si>
+  <si>
+    <t>User_Responsibility</t>
+  </si>
+  <si>
+    <t>//button[.='Back']</t>
+  </si>
+  <si>
+    <t>Global_Back</t>
   </si>
 </sst>
 </file>
@@ -29070,9 +29088,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G978"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30161,7 +30179,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="10"/>
       <c r="G67" s="4" t="str">
-        <f t="shared" ref="G67:G103" si="1">IF(A67&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A67&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" ref="G67:G105" si="1">IF(A67&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A67&amp;CHAR(34)&amp;");","")</f>
         <v>Browser.WebButton.click("GO");</v>
       </c>
     </row>
@@ -30743,6 +30761,38 @@
         <v>Browser.WebButton.click("AddPayment");</v>
       </c>
     </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Browser.WebButton.click("RTB_Check_Button");</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Browser.WebButton.click("Global_Back");</v>
+      </c>
+    </row>
     <row r="134" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G134" t="str">
         <f t="shared" ref="G134:G173" si="2">IF(A134&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A134&amp;CHAR(34)&amp;");","")</f>
@@ -36114,7 +36164,7 @@
   <conditionalFormatting sqref="A93">
     <cfRule type="duplicateValues" dxfId="703" priority="85"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G2 A3:F95 G3:G103">
+  <conditionalFormatting sqref="A1:G2 A3:F95 G3:G105">
     <cfRule type="duplicateValues" dxfId="702" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B1048576 B1:B98">
@@ -36254,9 +36304,9 @@
   <dimension ref="A1:G973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B108" sqref="B108"/>
+      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37765,15 +37815,19 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
+      <c r="A94" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>650</v>
+      </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Browser.WebEdit.Set("User_Responsibility", getdata("User_Responsibility"));</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -49020,7 +49074,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KalivaradhanS\Desktop\Workspace_VFQA\VFQA-master\Framework\Storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ImranH2\Desktop\Imran\Workspace_VFQA_New\VFQA\Framework\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="655">
   <si>
     <t>ObjectName</t>
   </si>
@@ -1992,6 +1992,9 @@
   </si>
   <si>
     <t>Global_Back</t>
+  </si>
+  <si>
+    <t>//button[@data-display="Submit"]</t>
   </si>
 </sst>
 </file>
@@ -2143,7 +2146,107 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="852">
+  <dxfs count="862">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -16787,151 +16890,151 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A15 A17:A18 A21 A30 A48:A1048576">
-    <cfRule type="duplicateValues" dxfId="851" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="861" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A15 A17:A18 A21 A30 A48:A1048576">
-    <cfRule type="duplicateValues" dxfId="850" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="860" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="849" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="859" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="848" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="858" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="847" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="857" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="846" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="856" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="845" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="855" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="844" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="854" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="843" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="853" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="842" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="852" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="841" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="851" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="840" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="850" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="839" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="849" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B18 A21:B21 A30:B30 A48:B1048576">
-    <cfRule type="duplicateValues" dxfId="838" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="848" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B18 A21:B21 A30:B30 A48:B1048576">
-    <cfRule type="duplicateValues" dxfId="837" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="847" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="836" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="846" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="835" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="845" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B15 B17:B18 B21 B30 B48:B1048576">
-    <cfRule type="duplicateValues" dxfId="834" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="844" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="833" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="843" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="duplicateValues" dxfId="832" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="842" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="831" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="841" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="830" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="840" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="duplicateValues" dxfId="829" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="839" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="828" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="838" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="827" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="837" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B22 B30 B48:B1048576">
-    <cfRule type="duplicateValues" dxfId="826" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="836" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A28">
-    <cfRule type="duplicateValues" dxfId="825" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="835" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B28">
-    <cfRule type="duplicateValues" dxfId="824" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="834" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A44">
-    <cfRule type="duplicateValues" dxfId="823" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="833" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A44">
-    <cfRule type="duplicateValues" dxfId="822" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="832" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B44">
-    <cfRule type="duplicateValues" dxfId="821" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="831" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B44">
-    <cfRule type="duplicateValues" dxfId="820" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="830" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B44">
-    <cfRule type="duplicateValues" dxfId="819" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="829" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B44">
-    <cfRule type="duplicateValues" dxfId="818" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="828" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B44 B48:B1048576">
-    <cfRule type="duplicateValues" dxfId="817" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="827" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="duplicateValues" dxfId="816" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="826" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="duplicateValues" dxfId="815" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="825" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B46">
-    <cfRule type="duplicateValues" dxfId="814" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="824" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B46">
-    <cfRule type="duplicateValues" dxfId="813" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="823" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B46">
-    <cfRule type="duplicateValues" dxfId="812" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="822" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B46">
-    <cfRule type="duplicateValues" dxfId="811" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="821" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B46">
-    <cfRule type="duplicateValues" dxfId="810" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="820" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="809" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="819" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="808" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="818" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B47">
-    <cfRule type="duplicateValues" dxfId="807" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="817" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B47">
-    <cfRule type="duplicateValues" dxfId="806" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="816" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="805" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="815" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="804" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="814" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="803" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="813" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -22985,16 +23088,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A25 A27:A37">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A7">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -29032,7 +29135,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29077,7 +29180,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29089,8 +29192,8 @@
   <dimension ref="A1:G978"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29531,8 +29634,8 @@
       <c r="A27" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>141</v>
+      <c r="B27" s="5" t="s">
+        <v>654</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -35865,433 +35968,463 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A104:A1048576 A94:A98 A49 A1:A2 A65 A14">
-    <cfRule type="duplicateValues" dxfId="802" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="812" priority="277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="801" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="811" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="800" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="810" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="799" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="809" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="798" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="808" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="797" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="807" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="796" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="806" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="795" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="805" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="794" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="804" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="793" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="803" priority="260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="792" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="802" priority="258"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="791" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="801" priority="257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A28">
-    <cfRule type="duplicateValues" dxfId="790" priority="228"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B28">
-    <cfRule type="duplicateValues" dxfId="789" priority="227"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B30">
-    <cfRule type="duplicateValues" dxfId="788" priority="224"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104:B1048576 A94:B98 A1:B30 A49:B49 B46:B48 A65:B65 B66">
-    <cfRule type="duplicateValues" dxfId="787" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="800" priority="238"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B26 B28">
+    <cfRule type="duplicateValues" dxfId="799" priority="237"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B26 B28:B30">
+    <cfRule type="duplicateValues" dxfId="798" priority="234"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104:B1048576 A94:B98 A1:B26 A49:B49 B46:B48 A65:B65 B66 A28:B30 A27">
+    <cfRule type="duplicateValues" dxfId="797" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="786" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="796" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="785" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="795" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B36">
-    <cfRule type="duplicateValues" dxfId="784" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="794" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="783" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="793" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B38">
-    <cfRule type="duplicateValues" dxfId="782" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="792" priority="209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="duplicateValues" dxfId="781" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="791" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B66">
-    <cfRule type="duplicateValues" dxfId="780" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="790" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B66">
-    <cfRule type="duplicateValues" dxfId="779" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="789" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="778" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="788" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="777" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="787" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="776" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="786" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="775" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="785" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="774" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="784" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="773" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="783" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B45">
-    <cfRule type="duplicateValues" dxfId="772" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="782" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="771" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="781" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="770" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="780" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="769" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="779" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="768" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="778" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="767" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="777" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A47">
+    <cfRule type="duplicateValues" dxfId="776" priority="167"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:B35">
+    <cfRule type="duplicateValues" dxfId="775" priority="651"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:B35">
+    <cfRule type="duplicateValues" dxfId="774" priority="653"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104:B1048576 B94:B98 B1:B26 B46:B49 B65:B66 B28:B30">
+    <cfRule type="duplicateValues" dxfId="773" priority="676"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104:B1048576 B94:B98 B1:B26 B46:B49 B65:B66 B28:B39">
+    <cfRule type="duplicateValues" dxfId="772" priority="679"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104:B1048576 B94:B98 B1:B26 B46:B49 B65:B66 B28:B42">
+    <cfRule type="duplicateValues" dxfId="771" priority="682"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:B49 B65:B66">
+    <cfRule type="duplicateValues" dxfId="770" priority="685"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104:B1048576 B94:B98 B46:B49 B65:B66">
+    <cfRule type="duplicateValues" dxfId="769" priority="689"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="duplicateValues" dxfId="768" priority="161"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B51">
+    <cfRule type="duplicateValues" dxfId="767" priority="158"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B51">
     <cfRule type="duplicateValues" dxfId="766" priority="157"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:B35">
-    <cfRule type="duplicateValues" dxfId="765" priority="641"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:B35">
-    <cfRule type="duplicateValues" dxfId="764" priority="643"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104:B1048576 B94:B98 B1:B30 B46:B49 B65:B66">
-    <cfRule type="duplicateValues" dxfId="763" priority="666"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104:B1048576 B94:B98 B1:B39 B46:B49 B65:B66">
-    <cfRule type="duplicateValues" dxfId="762" priority="669"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104:B1048576 B94:B98 B1:B42 B46:B49 B65:B66">
-    <cfRule type="duplicateValues" dxfId="761" priority="672"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46:B49 B65:B66">
-    <cfRule type="duplicateValues" dxfId="760" priority="675"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104:B1048576 B94:B98 B46:B49 B65:B66">
-    <cfRule type="duplicateValues" dxfId="759" priority="679"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
+  <conditionalFormatting sqref="B50:B51">
+    <cfRule type="duplicateValues" dxfId="765" priority="156"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B51">
+    <cfRule type="duplicateValues" dxfId="764" priority="159"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B51">
+    <cfRule type="duplicateValues" dxfId="763" priority="160"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="duplicateValues" dxfId="762" priority="155"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:A60">
+    <cfRule type="duplicateValues" dxfId="761" priority="153"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:A62">
+    <cfRule type="duplicateValues" dxfId="760" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="duplicateValues" dxfId="759" priority="150"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
     <cfRule type="duplicateValues" dxfId="758" priority="151"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B51">
-    <cfRule type="duplicateValues" dxfId="757" priority="148"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B51">
-    <cfRule type="duplicateValues" dxfId="756" priority="147"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B51">
-    <cfRule type="duplicateValues" dxfId="755" priority="146"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B51">
-    <cfRule type="duplicateValues" dxfId="754" priority="149"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B51">
-    <cfRule type="duplicateValues" dxfId="753" priority="150"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="duplicateValues" dxfId="752" priority="145"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:A60">
-    <cfRule type="duplicateValues" dxfId="751" priority="143"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A62">
-    <cfRule type="duplicateValues" dxfId="750" priority="142"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
-    <cfRule type="duplicateValues" dxfId="749" priority="140"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
-    <cfRule type="duplicateValues" dxfId="748" priority="141"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="747" priority="139"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104:B1048576 B94:B98 B1:B66">
-    <cfRule type="duplicateValues" dxfId="746" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="757" priority="149"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104:B1048576 B94:B98 B1:B26 B28:B66">
+    <cfRule type="duplicateValues" dxfId="756" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
+    <cfRule type="duplicateValues" dxfId="755" priority="135"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="duplicateValues" dxfId="754" priority="134"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="duplicateValues" dxfId="753" priority="128"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="duplicateValues" dxfId="752" priority="127"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="duplicateValues" dxfId="751" priority="126"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="duplicateValues" dxfId="750" priority="129"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="duplicateValues" dxfId="749" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="duplicateValues" dxfId="748" priority="131"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="duplicateValues" dxfId="747" priority="132"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="duplicateValues" dxfId="746" priority="133"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
     <cfRule type="duplicateValues" dxfId="745" priority="125"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
+  <conditionalFormatting sqref="A104:A1048576 A94:A98 A1:A85">
     <cfRule type="duplicateValues" dxfId="744" priority="124"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="743" priority="118"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="742" priority="117"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="741" priority="116"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="740" priority="119"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="739" priority="120"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="738" priority="121"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="737" priority="122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="736" priority="123"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="735" priority="115"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104:A1048576 A94:A98 A1:A85">
-    <cfRule type="duplicateValues" dxfId="734" priority="114"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A67 A70:A85">
-    <cfRule type="duplicateValues" dxfId="733" priority="1123"/>
+    <cfRule type="duplicateValues" dxfId="743" priority="1133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:B67 B69 A70:B85">
-    <cfRule type="duplicateValues" dxfId="732" priority="1126"/>
+    <cfRule type="duplicateValues" dxfId="742" priority="1136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67 B69:B85">
-    <cfRule type="duplicateValues" dxfId="731" priority="1130"/>
+    <cfRule type="duplicateValues" dxfId="741" priority="1140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
+    <cfRule type="duplicateValues" dxfId="740" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93 A86:B86">
+    <cfRule type="duplicateValues" dxfId="739" priority="117"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B86">
+    <cfRule type="duplicateValues" dxfId="738" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93 B86">
+    <cfRule type="duplicateValues" dxfId="737" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93">
+    <cfRule type="duplicateValues" dxfId="736" priority="119"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93">
+    <cfRule type="duplicateValues" dxfId="735" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93">
+    <cfRule type="duplicateValues" dxfId="734" priority="121"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93">
+    <cfRule type="duplicateValues" dxfId="733" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93">
+    <cfRule type="duplicateValues" dxfId="732" priority="123"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91">
+    <cfRule type="duplicateValues" dxfId="731" priority="109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91:B91 B88:B90">
     <cfRule type="duplicateValues" dxfId="730" priority="108"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B93 A86:B86">
+  <conditionalFormatting sqref="B88:B91">
     <cfRule type="duplicateValues" dxfId="729" priority="107"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B86">
+  <conditionalFormatting sqref="B88:B91">
     <cfRule type="duplicateValues" dxfId="728" priority="106"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B93 B86">
-    <cfRule type="duplicateValues" dxfId="727" priority="105"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="726" priority="109"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="725" priority="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="724" priority="111"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="723" priority="112"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="722" priority="113"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
-    <cfRule type="duplicateValues" dxfId="721" priority="99"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91:B91 B88:B90">
-    <cfRule type="duplicateValues" dxfId="720" priority="98"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B88:B91">
-    <cfRule type="duplicateValues" dxfId="719" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="727" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B91">
-    <cfRule type="duplicateValues" dxfId="718" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="726" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B91">
-    <cfRule type="duplicateValues" dxfId="717" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="725" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B91">
-    <cfRule type="duplicateValues" dxfId="716" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="724" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B91">
-    <cfRule type="duplicateValues" dxfId="715" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B88:B91">
-    <cfRule type="duplicateValues" dxfId="714" priority="103"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B88:B91">
-    <cfRule type="duplicateValues" dxfId="713" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="723" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87:A90">
+    <cfRule type="duplicateValues" dxfId="722" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92">
+    <cfRule type="duplicateValues" dxfId="721" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92">
+    <cfRule type="duplicateValues" dxfId="720" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:B92">
+    <cfRule type="duplicateValues" dxfId="719" priority="101"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:B92">
+    <cfRule type="duplicateValues" dxfId="718" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92">
+    <cfRule type="duplicateValues" dxfId="717" priority="99"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93">
+    <cfRule type="duplicateValues" dxfId="716" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93">
+    <cfRule type="duplicateValues" dxfId="715" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93">
+    <cfRule type="duplicateValues" dxfId="714" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93">
+    <cfRule type="duplicateValues" dxfId="713" priority="95"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G2 A3:F26 G3:G105 A28:F95 A27 C27:F27">
     <cfRule type="duplicateValues" dxfId="712" priority="94"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="711" priority="93"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="710" priority="92"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92:B92">
-    <cfRule type="duplicateValues" dxfId="709" priority="91"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92:B92">
-    <cfRule type="duplicateValues" dxfId="708" priority="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="707" priority="89"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="706" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="705" priority="87"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="704" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="703" priority="85"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G2 A3:F95 G3:G105">
-    <cfRule type="duplicateValues" dxfId="702" priority="84"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104:B1048576 B1:B98">
-    <cfRule type="duplicateValues" dxfId="701" priority="74"/>
+  <conditionalFormatting sqref="B104:B1048576 B1:B26 B28:B98">
+    <cfRule type="duplicateValues" dxfId="711" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="700" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="710" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:B99">
-    <cfRule type="duplicateValues" dxfId="699" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="709" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="698" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="708" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="697" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="707" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="696" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="706" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="695" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="705" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="694" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="704" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="693" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="703" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="692" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104:B1048576 B1:B99">
-    <cfRule type="duplicateValues" dxfId="691" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="702" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104:B1048576 B1:B26 B28:B99">
+    <cfRule type="duplicateValues" dxfId="701" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
+    <cfRule type="duplicateValues" dxfId="700" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:B100">
+    <cfRule type="duplicateValues" dxfId="699" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B100">
+    <cfRule type="duplicateValues" dxfId="698" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B100">
+    <cfRule type="duplicateValues" dxfId="697" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B100">
+    <cfRule type="duplicateValues" dxfId="696" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B100">
+    <cfRule type="duplicateValues" dxfId="695" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B100">
+    <cfRule type="duplicateValues" dxfId="694" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100">
+    <cfRule type="duplicateValues" dxfId="693" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B100">
+    <cfRule type="duplicateValues" dxfId="692" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101">
+    <cfRule type="duplicateValues" dxfId="691" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101:B101">
     <cfRule type="duplicateValues" dxfId="690" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100:B100">
-    <cfRule type="duplicateValues" dxfId="689" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="688" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="687" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="686" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="685" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B100">
+  <conditionalFormatting sqref="B101">
+    <cfRule type="duplicateValues" dxfId="689" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B101">
+    <cfRule type="duplicateValues" dxfId="688" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B101">
+    <cfRule type="duplicateValues" dxfId="687" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B101">
+    <cfRule type="duplicateValues" dxfId="686" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B101">
+    <cfRule type="duplicateValues" dxfId="685" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101">
     <cfRule type="duplicateValues" dxfId="684" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100">
+  <conditionalFormatting sqref="B101">
     <cfRule type="duplicateValues" dxfId="683" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="682" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="681" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101:B101">
-    <cfRule type="duplicateValues" dxfId="680" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="679" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="678" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="677" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="676" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="675" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="674" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="673" priority="25"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B100:B101">
-    <cfRule type="duplicateValues" dxfId="672" priority="1671"/>
+    <cfRule type="duplicateValues" dxfId="682" priority="1681"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:A101">
-    <cfRule type="duplicateValues" dxfId="671" priority="1673"/>
+    <cfRule type="duplicateValues" dxfId="681" priority="1683"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:A103">
-    <cfRule type="duplicateValues" dxfId="670" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="680" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:B103">
-    <cfRule type="duplicateValues" dxfId="669" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="679" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102:B103">
-    <cfRule type="duplicateValues" dxfId="668" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="678" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102:B103">
-    <cfRule type="duplicateValues" dxfId="667" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="677" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102:B103">
-    <cfRule type="duplicateValues" dxfId="666" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="676" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102:B103">
-    <cfRule type="duplicateValues" dxfId="665" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="675" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102:B103">
-    <cfRule type="duplicateValues" dxfId="664" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="674" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:A103">
-    <cfRule type="duplicateValues" dxfId="663" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="673" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102:B103">
-    <cfRule type="duplicateValues" dxfId="662" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="672" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102:B103">
-    <cfRule type="duplicateValues" dxfId="661" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="671" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:A103">
-    <cfRule type="duplicateValues" dxfId="660" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="670" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -36304,9 +36437,9 @@
   <dimension ref="A1:G973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43154,190 +43287,190 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A103:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="659" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="669" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="658" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="668" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A4:A5 A7:A8">
-    <cfRule type="duplicateValues" dxfId="657" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="667" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="656" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="666" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="655" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="665" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="654" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="664" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="653" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="663" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B1048576 A16:B16 A1:B13">
-    <cfRule type="duplicateValues" dxfId="652" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="662" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B1048576 A1:B16">
-    <cfRule type="duplicateValues" dxfId="651" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="661" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B15">
-    <cfRule type="duplicateValues" dxfId="650" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="660" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B1048576 B1:B19">
-    <cfRule type="duplicateValues" dxfId="649" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="659" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="648" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="658" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="647" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="657" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="646" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="656" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="645" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="655" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="644" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="654" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="643" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="653" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="642" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="652" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="641" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="651" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="640" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="650" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="639" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="649" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="638" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="648" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B38">
-    <cfRule type="duplicateValues" dxfId="637" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="647" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A40">
-    <cfRule type="duplicateValues" dxfId="636" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="646" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 A39">
-    <cfRule type="duplicateValues" dxfId="635" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="645" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 A39">
-    <cfRule type="duplicateValues" dxfId="634" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="644" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="633" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="643" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="632" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="642" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B1048576 B1:B40">
-    <cfRule type="duplicateValues" dxfId="631" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="641" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B1048576">
-    <cfRule type="duplicateValues" dxfId="630" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="640" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A53 A55:A56">
-    <cfRule type="duplicateValues" dxfId="629" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="639" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:B53 A55:B56 B54">
-    <cfRule type="duplicateValues" dxfId="628" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="638" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B56">
-    <cfRule type="duplicateValues" dxfId="627" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="637" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A1048576 A1:A53 A55:A56">
-    <cfRule type="duplicateValues" dxfId="626" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="636" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B64">
-    <cfRule type="duplicateValues" dxfId="625" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="635" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B64">
-    <cfRule type="duplicateValues" dxfId="624" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="634" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B58">
-    <cfRule type="duplicateValues" dxfId="623" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="633" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B64">
-    <cfRule type="duplicateValues" dxfId="622" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="632" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B67">
-    <cfRule type="duplicateValues" dxfId="621" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="631" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B67">
-    <cfRule type="duplicateValues" dxfId="620" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="630" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B67">
-    <cfRule type="duplicateValues" dxfId="619" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="629" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B102 B68:B89">
-    <cfRule type="duplicateValues" dxfId="618" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="628" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B1048576 B1:B89">
-    <cfRule type="duplicateValues" dxfId="617" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="627" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B91">
-    <cfRule type="duplicateValues" dxfId="616" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="626" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B91">
-    <cfRule type="duplicateValues" dxfId="615" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="625" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B91">
-    <cfRule type="duplicateValues" dxfId="614" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="624" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B91">
-    <cfRule type="duplicateValues" dxfId="613" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="623" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="612" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="622" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="611" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="621" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="610" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="620" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="609" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="619" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B92 B94:B1048576">
-    <cfRule type="duplicateValues" dxfId="608" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="618" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="607" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="617" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="606" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="616" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="605" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="615" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="604" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="614" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68:B89">
-    <cfRule type="duplicateValues" dxfId="603" priority="1930"/>
+    <cfRule type="duplicateValues" dxfId="613" priority="1930"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="602" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="612" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="601" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="611" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="600" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="610" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="599" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="609" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="598" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="608" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -43403,16 +43536,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="597" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="607" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="596" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="606" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="595" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="605" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="594" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="604" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49023,46 +49156,46 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A30:A43 A1 A45:A49 A51:A109 A111:A1048576 A22:A28">
-    <cfRule type="duplicateValues" dxfId="593" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="603" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="592" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="602" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="591" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="601" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A13">
-    <cfRule type="duplicateValues" dxfId="590" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="600" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="589" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="599" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="588" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="598" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="587" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="597" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="586" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="596" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B1048576 A1:B9 A11:B13">
-    <cfRule type="duplicateValues" dxfId="585" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="595" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B13 B22:B1048576">
-    <cfRule type="duplicateValues" dxfId="584" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="594" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A21">
-    <cfRule type="duplicateValues" dxfId="583" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="593" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B20 A21">
-    <cfRule type="duplicateValues" dxfId="582" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="592" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B20">
-    <cfRule type="duplicateValues" dxfId="581" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="591" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="580" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="590" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -49688,386 +49821,386 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="579" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="589" priority="239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="578" priority="237"/>
-    <cfRule type="duplicateValues" dxfId="577" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="588" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="587" priority="238"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="576" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="586" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="575" priority="231"/>
-    <cfRule type="duplicateValues" dxfId="574" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="585" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="584" priority="232"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="573" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="583" priority="230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="572" priority="228"/>
-    <cfRule type="duplicateValues" dxfId="571" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="582" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="581" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="570" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="580" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="569" priority="225"/>
-    <cfRule type="duplicateValues" dxfId="568" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="579" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="578" priority="226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="567" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="577" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="566" priority="213"/>
-    <cfRule type="duplicateValues" dxfId="565" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="576" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="575" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="564" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="574" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="563" priority="210"/>
-    <cfRule type="duplicateValues" dxfId="562" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="573" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="572" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="561" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="571" priority="209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="560" priority="207"/>
-    <cfRule type="duplicateValues" dxfId="559" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="570" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="569" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="558" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="568" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="557" priority="204"/>
-    <cfRule type="duplicateValues" dxfId="556" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="567" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="566" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="555" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="565" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="554" priority="201"/>
-    <cfRule type="duplicateValues" dxfId="553" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="564" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="563" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="552" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="562" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="551" priority="198"/>
-    <cfRule type="duplicateValues" dxfId="550" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="561" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="560" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="549" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="559" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B1048576 A1:B10">
-    <cfRule type="duplicateValues" dxfId="548" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="558" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="547" priority="182"/>
-    <cfRule type="duplicateValues" dxfId="546" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="557" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="556" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="545" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="555" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="544" priority="179"/>
-    <cfRule type="duplicateValues" dxfId="543" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="554" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="553" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="542" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="552" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="541" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="551" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="540" priority="175"/>
-    <cfRule type="duplicateValues" dxfId="539" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="550" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="549" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="538" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="548" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B15">
-    <cfRule type="duplicateValues" dxfId="537" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="547" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B1048576 B1:B15">
-    <cfRule type="duplicateValues" dxfId="536" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="546" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="535" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="545" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="534" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="544" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="533" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="543" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="532" priority="152"/>
-    <cfRule type="duplicateValues" dxfId="531" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="542" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="541" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="530" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="540" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="529" priority="147"/>
-    <cfRule type="duplicateValues" dxfId="528" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="539" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="538" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="527" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="537" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="526" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="536" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="525" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="535" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="524" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="534" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="523" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="522" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="533" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="532" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="521" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="531" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="duplicateValues" dxfId="520" priority="138"/>
-    <cfRule type="duplicateValues" dxfId="519" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="530" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="529" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B18">
-    <cfRule type="duplicateValues" dxfId="518" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="528" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="517" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="527" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="516" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="526" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="515" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="525" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="514" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="524" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="513" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="512" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="523" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="522" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="511" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="521" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A25">
-    <cfRule type="duplicateValues" dxfId="510" priority="642"/>
-    <cfRule type="duplicateValues" dxfId="509" priority="643"/>
+    <cfRule type="duplicateValues" dxfId="520" priority="642"/>
+    <cfRule type="duplicateValues" dxfId="519" priority="643"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B25">
-    <cfRule type="duplicateValues" dxfId="508" priority="646"/>
+    <cfRule type="duplicateValues" dxfId="518" priority="646"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B25">
-    <cfRule type="duplicateValues" dxfId="507" priority="648"/>
+    <cfRule type="duplicateValues" dxfId="517" priority="648"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F25">
-    <cfRule type="duplicateValues" dxfId="506" priority="654"/>
-    <cfRule type="duplicateValues" dxfId="505" priority="655"/>
+    <cfRule type="duplicateValues" dxfId="516" priority="654"/>
+    <cfRule type="duplicateValues" dxfId="515" priority="655"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F25">
-    <cfRule type="duplicateValues" dxfId="504" priority="658"/>
+    <cfRule type="duplicateValues" dxfId="514" priority="658"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="503" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="502" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="513" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="512" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="duplicateValues" dxfId="501" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="511" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="500" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="510" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:F26">
-    <cfRule type="duplicateValues" dxfId="499" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="498" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="509" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="508" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:F26">
-    <cfRule type="duplicateValues" dxfId="497" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="507" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B1048576 B1:B26">
-    <cfRule type="duplicateValues" dxfId="496" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="506" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="495" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="494" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="505" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="504" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27">
-    <cfRule type="duplicateValues" dxfId="493" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="503" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="492" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="502" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:F27">
-    <cfRule type="duplicateValues" dxfId="491" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="490" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="501" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="500" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:F27">
-    <cfRule type="duplicateValues" dxfId="489" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="499" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="488" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="498" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A29">
-    <cfRule type="duplicateValues" dxfId="487" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="486" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="497" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="496" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B29">
-    <cfRule type="duplicateValues" dxfId="485" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="495" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="duplicateValues" dxfId="484" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="494" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:F29">
-    <cfRule type="duplicateValues" dxfId="483" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="482" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="493" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="492" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:F29">
-    <cfRule type="duplicateValues" dxfId="481" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="491" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="duplicateValues" dxfId="480" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="490" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="479" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="478" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="489" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="488" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31 B30">
-    <cfRule type="duplicateValues" dxfId="477" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="487" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="476" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="486" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="475" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="485" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="474" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="484" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B31">
-    <cfRule type="duplicateValues" dxfId="473" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="483" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="472" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="471" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="482" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="481" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="470" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="480" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="469" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="468" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="479" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="478" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="467" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="477" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="466" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="476" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="465" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="475" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="464" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="474" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="463" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="473" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="462" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="472" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="461" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="471" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="460" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="470" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="459" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="469" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="458" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="468" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="457" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="467" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="456" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="466" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="455" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="454" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="465" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="464" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="453" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="463" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="452" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="462" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:F33">
-    <cfRule type="duplicateValues" dxfId="451" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="450" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="461" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="460" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:F33">
-    <cfRule type="duplicateValues" dxfId="449" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="459" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="448" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="458" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="447" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="457" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="446" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="456" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="445" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="455" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="444" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="454" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="443" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="453" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="442" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="452" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="441" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="451" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="440" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="450" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="439" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="449" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B35 B38:B1048576">
-    <cfRule type="duplicateValues" dxfId="438" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="448" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B37">
-    <cfRule type="duplicateValues" dxfId="437" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="447" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B37">
-    <cfRule type="duplicateValues" dxfId="436" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="446" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B37">
-    <cfRule type="duplicateValues" dxfId="435" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="445" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A37">
-    <cfRule type="duplicateValues" dxfId="434" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="444" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A37">
-    <cfRule type="duplicateValues" dxfId="433" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="443" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B37">
-    <cfRule type="duplicateValues" dxfId="432" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="442" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -50079,8 +50212,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G294"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52400,1220 +52533,1220 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B295:B1048576 B260:B261 B142 B1 B37 B240">
-    <cfRule type="duplicateValues" dxfId="431" priority="591"/>
+    <cfRule type="duplicateValues" dxfId="441" priority="591"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="duplicateValues" dxfId="430" priority="790"/>
+    <cfRule type="duplicateValues" dxfId="440" priority="790"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B16 B18:B19">
-    <cfRule type="duplicateValues" dxfId="429" priority="560"/>
+    <cfRule type="duplicateValues" dxfId="439" priority="560"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B64">
-    <cfRule type="duplicateValues" dxfId="428" priority="528"/>
+    <cfRule type="duplicateValues" dxfId="438" priority="528"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B66">
-    <cfRule type="duplicateValues" dxfId="427" priority="525"/>
+    <cfRule type="duplicateValues" dxfId="437" priority="525"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B73">
-    <cfRule type="duplicateValues" dxfId="426" priority="521"/>
+    <cfRule type="duplicateValues" dxfId="436" priority="521"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="duplicateValues" dxfId="425" priority="519"/>
+    <cfRule type="duplicateValues" dxfId="435" priority="519"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="duplicateValues" dxfId="424" priority="517"/>
+    <cfRule type="duplicateValues" dxfId="434" priority="517"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="duplicateValues" dxfId="423" priority="515"/>
+    <cfRule type="duplicateValues" dxfId="433" priority="515"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="422" priority="511"/>
+    <cfRule type="duplicateValues" dxfId="432" priority="511"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B155 A158:B158 A143:A151 A153:A155">
-    <cfRule type="duplicateValues" dxfId="421" priority="500"/>
+    <cfRule type="duplicateValues" dxfId="431" priority="500"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B158 A143:A151 A153:A158">
-    <cfRule type="duplicateValues" dxfId="420" priority="499"/>
+    <cfRule type="duplicateValues" dxfId="430" priority="499"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B241:B248 A241:A245 A247:A248">
-    <cfRule type="duplicateValues" dxfId="419" priority="490"/>
+    <cfRule type="duplicateValues" dxfId="429" priority="490"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B262">
-    <cfRule type="duplicateValues" dxfId="418" priority="485"/>
+    <cfRule type="duplicateValues" dxfId="428" priority="485"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B263">
-    <cfRule type="duplicateValues" dxfId="417" priority="482"/>
+    <cfRule type="duplicateValues" dxfId="427" priority="482"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B264">
-    <cfRule type="duplicateValues" dxfId="416" priority="479"/>
+    <cfRule type="duplicateValues" dxfId="426" priority="479"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B265">
-    <cfRule type="duplicateValues" dxfId="415" priority="476"/>
+    <cfRule type="duplicateValues" dxfId="425" priority="476"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B266">
-    <cfRule type="duplicateValues" dxfId="414" priority="473"/>
+    <cfRule type="duplicateValues" dxfId="424" priority="473"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B267">
-    <cfRule type="duplicateValues" dxfId="413" priority="470"/>
+    <cfRule type="duplicateValues" dxfId="423" priority="470"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B268">
-    <cfRule type="duplicateValues" dxfId="412" priority="467"/>
+    <cfRule type="duplicateValues" dxfId="422" priority="467"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B269">
-    <cfRule type="duplicateValues" dxfId="411" priority="464"/>
+    <cfRule type="duplicateValues" dxfId="421" priority="464"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B270">
-    <cfRule type="duplicateValues" dxfId="410" priority="461"/>
+    <cfRule type="duplicateValues" dxfId="420" priority="461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B271">
-    <cfRule type="duplicateValues" dxfId="409" priority="457"/>
+    <cfRule type="duplicateValues" dxfId="419" priority="457"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B272">
-    <cfRule type="duplicateValues" dxfId="408" priority="454"/>
+    <cfRule type="duplicateValues" dxfId="418" priority="454"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B142:B161 B1 B3:B19 B240:B249 B37:B40 B42:B76 B260:B272">
-    <cfRule type="duplicateValues" dxfId="407" priority="449"/>
+    <cfRule type="duplicateValues" dxfId="417" priority="449"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="duplicateValues" dxfId="406" priority="447"/>
+    <cfRule type="duplicateValues" dxfId="416" priority="447"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="405" priority="444"/>
+    <cfRule type="duplicateValues" dxfId="415" priority="444"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="404" priority="443"/>
+    <cfRule type="duplicateValues" dxfId="414" priority="443"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B275">
-    <cfRule type="duplicateValues" dxfId="403" priority="442"/>
+    <cfRule type="duplicateValues" dxfId="413" priority="442"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B275">
-    <cfRule type="duplicateValues" dxfId="402" priority="441"/>
+    <cfRule type="duplicateValues" dxfId="412" priority="441"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274">
-    <cfRule type="duplicateValues" dxfId="401" priority="440"/>
+    <cfRule type="duplicateValues" dxfId="411" priority="440"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274">
-    <cfRule type="duplicateValues" dxfId="400" priority="439"/>
+    <cfRule type="duplicateValues" dxfId="410" priority="439"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B275">
-    <cfRule type="duplicateValues" dxfId="399" priority="438"/>
+    <cfRule type="duplicateValues" dxfId="409" priority="438"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:B80">
-    <cfRule type="duplicateValues" dxfId="398" priority="426"/>
+    <cfRule type="duplicateValues" dxfId="408" priority="426"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:B80">
-    <cfRule type="duplicateValues" dxfId="397" priority="425"/>
+    <cfRule type="duplicateValues" dxfId="407" priority="425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="duplicateValues" dxfId="396" priority="424"/>
+    <cfRule type="duplicateValues" dxfId="406" priority="424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="395" priority="419"/>
+    <cfRule type="duplicateValues" dxfId="405" priority="419"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="394" priority="418"/>
+    <cfRule type="duplicateValues" dxfId="404" priority="418"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="393" priority="417"/>
+    <cfRule type="duplicateValues" dxfId="403" priority="417"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="392" priority="414"/>
+    <cfRule type="duplicateValues" dxfId="402" priority="414"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="391" priority="413"/>
+    <cfRule type="duplicateValues" dxfId="401" priority="413"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="390" priority="412"/>
+    <cfRule type="duplicateValues" dxfId="400" priority="412"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B1:B19 B240:B249 B37:B40 B142:B161 B42:B81 B260:B272 B274:B276">
-    <cfRule type="duplicateValues" dxfId="389" priority="408"/>
+    <cfRule type="duplicateValues" dxfId="399" priority="408"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:B278">
-    <cfRule type="duplicateValues" dxfId="388" priority="406"/>
-    <cfRule type="duplicateValues" dxfId="387" priority="407"/>
+    <cfRule type="duplicateValues" dxfId="398" priority="406"/>
+    <cfRule type="duplicateValues" dxfId="397" priority="407"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277">
-    <cfRule type="duplicateValues" dxfId="386" priority="404"/>
+    <cfRule type="duplicateValues" dxfId="396" priority="404"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B278">
-    <cfRule type="duplicateValues" dxfId="385" priority="403"/>
+    <cfRule type="duplicateValues" dxfId="395" priority="403"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277:B278">
-    <cfRule type="duplicateValues" dxfId="384" priority="402"/>
+    <cfRule type="duplicateValues" dxfId="394" priority="402"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277:B278">
-    <cfRule type="duplicateValues" dxfId="383" priority="401"/>
+    <cfRule type="duplicateValues" dxfId="393" priority="401"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:B163">
-    <cfRule type="duplicateValues" dxfId="382" priority="392"/>
+    <cfRule type="duplicateValues" dxfId="392" priority="392"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="duplicateValues" dxfId="381" priority="397"/>
+    <cfRule type="duplicateValues" dxfId="391" priority="397"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="duplicateValues" dxfId="380" priority="388"/>
+    <cfRule type="duplicateValues" dxfId="390" priority="388"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="duplicateValues" dxfId="379" priority="390"/>
+    <cfRule type="duplicateValues" dxfId="389" priority="390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="378" priority="377"/>
+    <cfRule type="duplicateValues" dxfId="388" priority="377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="377" priority="376"/>
+    <cfRule type="duplicateValues" dxfId="387" priority="376"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="376" priority="375"/>
+    <cfRule type="duplicateValues" dxfId="386" priority="375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="375" priority="374"/>
+    <cfRule type="duplicateValues" dxfId="385" priority="374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="374" priority="373"/>
+    <cfRule type="duplicateValues" dxfId="384" priority="373"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B21">
-    <cfRule type="duplicateValues" dxfId="373" priority="371"/>
+    <cfRule type="duplicateValues" dxfId="383" priority="371"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="372" priority="368"/>
+    <cfRule type="duplicateValues" dxfId="382" priority="368"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B240:B249 B37:B40 B1:B21 B142:B164 B42:B83 B260:B272 B274:B278">
-    <cfRule type="duplicateValues" dxfId="371" priority="367"/>
+    <cfRule type="duplicateValues" dxfId="381" priority="367"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="duplicateValues" dxfId="370" priority="364"/>
+    <cfRule type="duplicateValues" dxfId="380" priority="364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="369" priority="361"/>
+    <cfRule type="duplicateValues" dxfId="379" priority="361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165">
-    <cfRule type="duplicateValues" dxfId="368" priority="356"/>
+    <cfRule type="duplicateValues" dxfId="378" priority="356"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165">
-    <cfRule type="duplicateValues" dxfId="367" priority="358"/>
+    <cfRule type="duplicateValues" dxfId="377" priority="358"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279:B279">
-    <cfRule type="duplicateValues" dxfId="366" priority="343"/>
-    <cfRule type="duplicateValues" dxfId="365" priority="344"/>
+    <cfRule type="duplicateValues" dxfId="376" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="375" priority="344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="364" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="374" priority="341"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="363" priority="340"/>
+    <cfRule type="duplicateValues" dxfId="373" priority="340"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="362" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="372" priority="339"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152">
-    <cfRule type="duplicateValues" dxfId="361" priority="325"/>
+    <cfRule type="duplicateValues" dxfId="371" priority="325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="360" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="370" priority="321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="359" priority="320"/>
+    <cfRule type="duplicateValues" dxfId="369" priority="320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="358" priority="319"/>
+    <cfRule type="duplicateValues" dxfId="368" priority="319"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="357" priority="318"/>
+    <cfRule type="duplicateValues" dxfId="367" priority="318"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="356" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="366" priority="311"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="355" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="365" priority="312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="354" priority="313"/>
+    <cfRule type="duplicateValues" dxfId="364" priority="313"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="353" priority="314"/>
+    <cfRule type="duplicateValues" dxfId="363" priority="314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="352" priority="315"/>
+    <cfRule type="duplicateValues" dxfId="362" priority="315"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="351" priority="316"/>
+    <cfRule type="duplicateValues" dxfId="361" priority="316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="350" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="360" priority="306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="349" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="359" priority="305"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="348" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="358" priority="304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="347" priority="301"/>
+    <cfRule type="duplicateValues" dxfId="357" priority="301"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86 A87:B87">
-    <cfRule type="duplicateValues" dxfId="346" priority="294"/>
+    <cfRule type="duplicateValues" dxfId="356" priority="294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="345" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="355" priority="296"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="344" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="354" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="343" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="353" priority="298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="342" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="352" priority="299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="341" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="351" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="340" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="350" priority="273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B107">
-    <cfRule type="duplicateValues" dxfId="339" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B109">
-    <cfRule type="duplicateValues" dxfId="338" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="duplicateValues" dxfId="337" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B116">
-    <cfRule type="duplicateValues" dxfId="336" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B116">
-    <cfRule type="duplicateValues" dxfId="335" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="345" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116">
-    <cfRule type="duplicateValues" dxfId="334" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="344" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="333" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="343" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="332" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="331" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="330" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="340" priority="274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="329" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="328" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118 B101:B109">
-    <cfRule type="duplicateValues" dxfId="327" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="326" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="278"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="325" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="324" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B121">
-    <cfRule type="duplicateValues" dxfId="323" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B237 B166">
-    <cfRule type="duplicateValues" dxfId="322" priority="1035"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="1035"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B195:B197">
-    <cfRule type="duplicateValues" dxfId="321" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="320" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="319" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="318" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168:B180">
-    <cfRule type="duplicateValues" dxfId="317" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="327" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="316" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="315" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="314" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181">
-    <cfRule type="duplicateValues" dxfId="313" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:B1048576 A240:A245 B142:B161 A1:B19 A142:A151 A37:B40 A153:A161 A247:A249 B240:B249 A42:B80 A260:B272 A274:B275 A273">
-    <cfRule type="duplicateValues" dxfId="312" priority="1087"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="1087"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B253:B254">
-    <cfRule type="duplicateValues" dxfId="311" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B250:B254">
-    <cfRule type="duplicateValues" dxfId="310" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:B285">
-    <cfRule type="duplicateValues" dxfId="309" priority="226"/>
-    <cfRule type="duplicateValues" dxfId="308" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B281:B285">
-    <cfRule type="duplicateValues" dxfId="307" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B1:B29 B37:B121 B142:B197 B237:B254 B260:B272 B274:B285">
-    <cfRule type="duplicateValues" dxfId="306" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="duplicateValues" dxfId="305" priority="1136"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="1136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167:B197">
-    <cfRule type="duplicateValues" dxfId="304" priority="1138"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="1138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286:B286">
-    <cfRule type="duplicateValues" dxfId="303" priority="217"/>
-    <cfRule type="duplicateValues" dxfId="302" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B286">
-    <cfRule type="duplicateValues" dxfId="301" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B286">
-    <cfRule type="duplicateValues" dxfId="300" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286:B286">
-    <cfRule type="duplicateValues" dxfId="299" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130 A122:B122">
-    <cfRule type="duplicateValues" dxfId="298" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="297" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122 B130">
-    <cfRule type="duplicateValues" dxfId="296" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="295" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="294" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="293" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="292" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="291" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B127 A128:B128">
-    <cfRule type="duplicateValues" dxfId="290" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="289" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="288" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="287" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="286" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="285" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="284" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="283" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B129">
-    <cfRule type="duplicateValues" dxfId="282" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="duplicateValues" dxfId="281" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B200:B205">
-    <cfRule type="duplicateValues" dxfId="280" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B200:B205">
-    <cfRule type="duplicateValues" dxfId="279" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B199">
-    <cfRule type="duplicateValues" dxfId="278" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B205">
-    <cfRule type="duplicateValues" dxfId="277" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287 A288:B288">
-    <cfRule type="duplicateValues" dxfId="276" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="275" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="274" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B288">
-    <cfRule type="duplicateValues" dxfId="273" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287:B288">
-    <cfRule type="duplicateValues" dxfId="272" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="271" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="270" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="269" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="268" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="267" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="266" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="265" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="264" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="263" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290:B290">
-    <cfRule type="duplicateValues" dxfId="262" priority="175"/>
-    <cfRule type="duplicateValues" dxfId="261" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B290">
-    <cfRule type="duplicateValues" dxfId="260" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="259" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="258" priority="1139"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="1139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="257" priority="1140"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="1140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="256" priority="1141"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="1141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="255" priority="1142"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="1142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="254" priority="1143"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="1143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="253" priority="1144"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="1144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="252" priority="1145"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="1145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 A16 A18:A19">
-    <cfRule type="duplicateValues" dxfId="251" priority="1203"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="1203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="250" priority="1206"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="1206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="249" priority="1207"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="1207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="248" priority="1208"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="1208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="247" priority="1209"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="1209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14 A16:B16 A18:B19">
-    <cfRule type="duplicateValues" dxfId="246" priority="1217"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="1217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14">
-    <cfRule type="duplicateValues" dxfId="245" priority="1223"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="1223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A14">
-    <cfRule type="duplicateValues" dxfId="244" priority="1225"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="1225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="243" priority="1226"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="1226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="242" priority="1228"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="1228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="241" priority="1229"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="1229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A64">
-    <cfRule type="duplicateValues" dxfId="240" priority="1230"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="1230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:B73">
-    <cfRule type="duplicateValues" dxfId="239" priority="1231"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="1231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:B74">
-    <cfRule type="duplicateValues" dxfId="238" priority="1233"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="1233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="237" priority="1235"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="1235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A156:B157">
-    <cfRule type="duplicateValues" dxfId="236" priority="1243"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="1243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A241">
-    <cfRule type="duplicateValues" dxfId="235" priority="1245"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="1245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A262">
-    <cfRule type="duplicateValues" dxfId="234" priority="1248"/>
-    <cfRule type="duplicateValues" dxfId="233" priority="1249"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="1248"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="1249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A263">
-    <cfRule type="duplicateValues" dxfId="232" priority="1250"/>
-    <cfRule type="duplicateValues" dxfId="231" priority="1251"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="1250"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="1251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A264">
-    <cfRule type="duplicateValues" dxfId="230" priority="1252"/>
-    <cfRule type="duplicateValues" dxfId="229" priority="1253"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="1252"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="1253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A265">
-    <cfRule type="duplicateValues" dxfId="228" priority="1254"/>
-    <cfRule type="duplicateValues" dxfId="227" priority="1255"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="1254"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="1255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A266">
-    <cfRule type="duplicateValues" dxfId="226" priority="1256"/>
-    <cfRule type="duplicateValues" dxfId="225" priority="1257"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="1256"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="1257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A267">
-    <cfRule type="duplicateValues" dxfId="224" priority="1258"/>
-    <cfRule type="duplicateValues" dxfId="223" priority="1259"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="1258"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="1259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A268">
-    <cfRule type="duplicateValues" dxfId="222" priority="1260"/>
-    <cfRule type="duplicateValues" dxfId="221" priority="1261"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="1260"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="1261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269">
-    <cfRule type="duplicateValues" dxfId="220" priority="1262"/>
-    <cfRule type="duplicateValues" dxfId="219" priority="1263"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="1262"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="1263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A270">
-    <cfRule type="duplicateValues" dxfId="218" priority="1264"/>
-    <cfRule type="duplicateValues" dxfId="217" priority="1265"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="1264"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="1265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A262:B270">
-    <cfRule type="duplicateValues" dxfId="216" priority="1266"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="1266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A271">
-    <cfRule type="duplicateValues" dxfId="215" priority="1268"/>
-    <cfRule type="duplicateValues" dxfId="214" priority="1269"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="1268"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="1269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A272">
-    <cfRule type="duplicateValues" dxfId="213" priority="1270"/>
-    <cfRule type="duplicateValues" dxfId="212" priority="1271"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="1270"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="1271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A272:B272">
-    <cfRule type="duplicateValues" dxfId="211" priority="1272"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="1272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A273">
-    <cfRule type="duplicateValues" dxfId="210" priority="1274"/>
-    <cfRule type="duplicateValues" dxfId="209" priority="1275"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="1274"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="1275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="duplicateValues" dxfId="208" priority="1283"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="1283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A274">
-    <cfRule type="duplicateValues" dxfId="207" priority="1285"/>
-    <cfRule type="duplicateValues" dxfId="206" priority="1286"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="1285"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="1286"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A274">
-    <cfRule type="duplicateValues" dxfId="205" priority="1287"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="1287"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A275">
-    <cfRule type="duplicateValues" dxfId="204" priority="1288"/>
-    <cfRule type="duplicateValues" dxfId="203" priority="1289"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="1288"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="1289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A275">
-    <cfRule type="duplicateValues" dxfId="202" priority="1290"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="1290"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="duplicateValues" dxfId="201" priority="1291"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="1291"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="duplicateValues" dxfId="200" priority="1292"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="1292"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A276">
-    <cfRule type="duplicateValues" dxfId="199" priority="1293"/>
-    <cfRule type="duplicateValues" dxfId="198" priority="1294"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="1293"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="1294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A276">
-    <cfRule type="duplicateValues" dxfId="197" priority="1295"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="1295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:A278">
-    <cfRule type="duplicateValues" dxfId="196" priority="1302"/>
-    <cfRule type="duplicateValues" dxfId="195" priority="1303"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="1302"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="1303"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:B278">
-    <cfRule type="duplicateValues" dxfId="194" priority="1304"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="1304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:B163">
-    <cfRule type="duplicateValues" dxfId="193" priority="1310"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="1310"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B83">
-    <cfRule type="duplicateValues" dxfId="192" priority="1314"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="1314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A21">
-    <cfRule type="duplicateValues" dxfId="191" priority="1316"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="1316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:A1048576 A240:A245 A37:A40 A1:A21 A142:A151 A153:A164 A247:A249 A42:A83 A260:A278">
-    <cfRule type="duplicateValues" dxfId="190" priority="1327"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="1327"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279">
-    <cfRule type="duplicateValues" dxfId="189" priority="1342"/>
-    <cfRule type="duplicateValues" dxfId="188" priority="1343"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="1342"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="1343"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279:B279">
-    <cfRule type="duplicateValues" dxfId="187" priority="1344"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="1344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="186" priority="1350"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="1350"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="185" priority="1351"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="1351"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246">
-    <cfRule type="duplicateValues" dxfId="184" priority="1353"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="1353"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="183" priority="1354"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="1354"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="182" priority="1355"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="1355"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="181" priority="1361"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="1361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:A85">
-    <cfRule type="duplicateValues" dxfId="180" priority="1362"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="1362"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A280">
-    <cfRule type="duplicateValues" dxfId="179" priority="1363"/>
-    <cfRule type="duplicateValues" dxfId="178" priority="1364"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="1363"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="1364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A280:B280">
-    <cfRule type="duplicateValues" dxfId="177" priority="1365"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="1365"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="176" priority="1369"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="1369"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="175" priority="1373"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="1373"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A29">
-    <cfRule type="duplicateValues" dxfId="174" priority="1374"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="1374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="173" priority="1375"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="1375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A122">
-    <cfRule type="duplicateValues" dxfId="172" priority="1377"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="1377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A122">
-    <cfRule type="duplicateValues" dxfId="171" priority="1378"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="1378"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:A96">
-    <cfRule type="duplicateValues" dxfId="170" priority="1379"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="1379"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97:A98">
-    <cfRule type="duplicateValues" dxfId="169" priority="1380"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="1380"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="168" priority="1381"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="1381"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A193 A186:A191 A195:A196">
-    <cfRule type="duplicateValues" dxfId="167" priority="1383"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="1383"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A197">
-    <cfRule type="duplicateValues" dxfId="166" priority="1385"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="1385"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192">
-    <cfRule type="duplicateValues" dxfId="165" priority="1386"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="1386"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A193 A195:A197">
-    <cfRule type="duplicateValues" dxfId="164" priority="1387"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="1387"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181:A185">
-    <cfRule type="duplicateValues" dxfId="163" priority="1389"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="1389"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181:A185">
-    <cfRule type="duplicateValues" dxfId="162" priority="1390"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="1390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237">
-    <cfRule type="duplicateValues" dxfId="161" priority="1393"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="1393"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:B1048576 A260:B261 A142:B142 A1:B1 A37:B37 A240:B240">
-    <cfRule type="duplicateValues" dxfId="160" priority="1411"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="1411"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A253:A254">
-    <cfRule type="duplicateValues" dxfId="159" priority="1423"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="1423"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250:A254">
-    <cfRule type="duplicateValues" dxfId="158" priority="1424"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="1424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250:A254">
-    <cfRule type="duplicateValues" dxfId="157" priority="1425"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="1425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:A285">
-    <cfRule type="duplicateValues" dxfId="156" priority="1426"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="1427"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="1426"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="1427"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:B285">
-    <cfRule type="duplicateValues" dxfId="154" priority="1428"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="1428"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:A1048576 A1:A29 A142:A193 A37:A122 A237:A254 A260:A285 A195:A197">
-    <cfRule type="duplicateValues" dxfId="153" priority="1440"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="1440"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286">
-    <cfRule type="duplicateValues" dxfId="152" priority="1445"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="1446"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="1445"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="1446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286">
-    <cfRule type="duplicateValues" dxfId="150" priority="1455"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="1455"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="149" priority="1456"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="1456"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="148" priority="1460"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="1460"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="147" priority="1463"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="1463"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A127">
-    <cfRule type="duplicateValues" dxfId="146" priority="1464"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="1464"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="145" priority="1465"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="1465"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="144" priority="1466"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="1466"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="143" priority="1471"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="1471"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="142" priority="1472"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="1472"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A288">
-    <cfRule type="duplicateValues" dxfId="141" priority="1475"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="1476"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="1475"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="1476"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="duplicateValues" dxfId="139" priority="1479"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="1480"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="1479"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="1480"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="duplicateValues" dxfId="137" priority="1481"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="1481"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A289">
-    <cfRule type="duplicateValues" dxfId="136" priority="1485"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="1485"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A289">
-    <cfRule type="duplicateValues" dxfId="135" priority="1486"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="1486"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290">
-    <cfRule type="duplicateValues" dxfId="134" priority="1487"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="1488"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="1487"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="1488"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290:B290">
-    <cfRule type="duplicateValues" dxfId="132" priority="1489"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="1489"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="131" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="130" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="duplicateValues" dxfId="129" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="duplicateValues" dxfId="128" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="127" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="126" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32 A35">
-    <cfRule type="duplicateValues" dxfId="125" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32 A35">
-    <cfRule type="duplicateValues" dxfId="124" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32 A35:B35">
-    <cfRule type="duplicateValues" dxfId="123" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32 A35:B35">
-    <cfRule type="duplicateValues" dxfId="122" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32 B35">
-    <cfRule type="duplicateValues" dxfId="121" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32 B35">
-    <cfRule type="duplicateValues" dxfId="120" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="119" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="118" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="117" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="116" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B132">
-    <cfRule type="duplicateValues" dxfId="115" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:F135 A136">
-    <cfRule type="duplicateValues" dxfId="114" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:G135 A136:B136">
-    <cfRule type="duplicateValues" dxfId="113" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G131:G135 B136">
-    <cfRule type="duplicateValues" dxfId="112" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:F135 A136">
-    <cfRule type="duplicateValues" dxfId="111" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G131:G141 B131:B136">
-    <cfRule type="duplicateValues" dxfId="110" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:A259">
-    <cfRule type="duplicateValues" dxfId="109" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:B259">
-    <cfRule type="duplicateValues" dxfId="108" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B259">
-    <cfRule type="duplicateValues" dxfId="107" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:A259">
-    <cfRule type="duplicateValues" dxfId="106" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="105" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="104" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="103" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A291">
-    <cfRule type="duplicateValues" dxfId="102" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A291">
-    <cfRule type="duplicateValues" dxfId="101" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="100" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="99" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="98" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A292">
-    <cfRule type="duplicateValues" dxfId="97" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A292">
-    <cfRule type="duplicateValues" dxfId="96" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291:B292">
-    <cfRule type="duplicateValues" dxfId="95" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B292 B1:B32 B237:B272 B35:B136 B142:B209 B295:B1048576">
-    <cfRule type="duplicateValues" dxfId="94" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237:A292 A1:A32 A35:A136 A142:A193 A195:A209 A295:A1048576">
-    <cfRule type="duplicateValues" dxfId="93" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="92" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="91" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="90" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="89" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="88" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="87" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="86" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="85" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="84" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="83" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="82" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="81" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="80" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="79" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="duplicateValues" dxfId="78" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B137">
-    <cfRule type="duplicateValues" dxfId="77" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="76" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="75" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="74" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="73" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="72" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="duplicateValues" dxfId="71" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="70" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="duplicateValues" dxfId="69" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138:B138">
-    <cfRule type="duplicateValues" dxfId="68" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="67" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="66" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="65" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="64" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="63" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="duplicateValues" dxfId="62" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="61" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="60" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="59" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="58" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B40 B42:B66">
-    <cfRule type="duplicateValues" dxfId="57" priority="1526"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="1526"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B40 A42:B66">
-    <cfRule type="duplicateValues" dxfId="56" priority="1565"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="1565"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="55" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="54" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="53" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="52" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232 B234:B236">
-    <cfRule type="duplicateValues" dxfId="51" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="50" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="49" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="48" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B234:B292 B1:B33 B295:B1048576 B35:B138 B142:B232">
-    <cfRule type="duplicateValues" dxfId="47" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:A292 A1:A33 A295:A1048576 A35:A138 A142:A232">
-    <cfRule type="duplicateValues" dxfId="46" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A135 F136:F141">
-    <cfRule type="duplicateValues" dxfId="45" priority="1767"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="1767"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B135 F136:G141">
-    <cfRule type="duplicateValues" dxfId="44" priority="1770"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="1770"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135 G136:G141">
-    <cfRule type="duplicateValues" dxfId="43" priority="1773"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="1773"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A135 F136:F141">
-    <cfRule type="duplicateValues" dxfId="42" priority="1776"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="1776"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B138">
-    <cfRule type="duplicateValues" dxfId="41" priority="1798"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="1798"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B206:B209">
-    <cfRule type="duplicateValues" dxfId="40" priority="1866"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="1866"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211:B229">
-    <cfRule type="duplicateValues" dxfId="39" priority="1942"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="1942"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211:B232 B234:B236">
-    <cfRule type="duplicateValues" dxfId="38" priority="1944"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="1944"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="37" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="36" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="35" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="34" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="33" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="32" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="31" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A293:A294">
-    <cfRule type="duplicateValues" dxfId="29" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A293:A294">
-    <cfRule type="duplicateValues" dxfId="28" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="27" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="duplicateValues" dxfId="23" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:B141">
-    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -59576,7 +59709,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -59664,7 +59797,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="658">
   <si>
     <t>ObjectName</t>
   </si>
@@ -1995,6 +1995,15 @@
   </si>
   <si>
     <t>//button[@data-display="Submit"]</t>
+  </si>
+  <si>
+    <t>//button[@aria-label='Products and Services:Menu']</t>
+  </si>
+  <si>
+    <t>//a[text()='Account Summary']</t>
+  </si>
+  <si>
+    <t>//button[@aria-label='Installed Assets:Menu']</t>
   </si>
 </sst>
 </file>
@@ -2146,7 +2155,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="862">
+  <dxfs count="882">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8646,6 +8655,206 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10789,8 +10998,8 @@
   <dimension ref="A1:G994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11155,7 +11364,7 @@
         <v>248</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>76</v>
+        <v>656</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -16890,151 +17099,151 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 A15 A17:A18 A21 A30 A48:A1048576">
-    <cfRule type="duplicateValues" dxfId="861" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="881" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A15 A17:A18 A21 A30 A48:A1048576">
-    <cfRule type="duplicateValues" dxfId="860" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="880" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="859" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="879" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="858" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="878" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="857" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="877" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="856" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="876" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="855" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="875" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="854" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="874" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="853" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="873" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="852" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="872" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="851" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="871" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="850" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="870" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="849" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="869" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B18 A21:B21 A30:B30 A48:B1048576">
-    <cfRule type="duplicateValues" dxfId="848" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="868" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B13 A15:B15 A17:B18 A21:B21 A30:B30 A48:B1048576">
-    <cfRule type="duplicateValues" dxfId="847" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="867" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="846" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="866" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="845" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="865" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B15 B17:B18 B21 B30 B48:B1048576">
-    <cfRule type="duplicateValues" dxfId="844" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="864" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="843" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="863" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="duplicateValues" dxfId="842" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="862" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="841" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="861" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="840" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="860" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="duplicateValues" dxfId="839" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="859" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="838" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="858" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="837" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="857" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B22 B30 B48:B1048576">
-    <cfRule type="duplicateValues" dxfId="836" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="856" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A28">
-    <cfRule type="duplicateValues" dxfId="835" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="855" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B28">
-    <cfRule type="duplicateValues" dxfId="834" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="854" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A44">
-    <cfRule type="duplicateValues" dxfId="833" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="853" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A44">
-    <cfRule type="duplicateValues" dxfId="832" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="852" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B44">
-    <cfRule type="duplicateValues" dxfId="831" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="851" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B44">
-    <cfRule type="duplicateValues" dxfId="830" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="850" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B44">
-    <cfRule type="duplicateValues" dxfId="829" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="849" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B44">
-    <cfRule type="duplicateValues" dxfId="828" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="848" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B44 B48:B1048576">
-    <cfRule type="duplicateValues" dxfId="827" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="847" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="duplicateValues" dxfId="826" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="846" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="duplicateValues" dxfId="825" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="845" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B46">
-    <cfRule type="duplicateValues" dxfId="824" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="844" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B46">
-    <cfRule type="duplicateValues" dxfId="823" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="843" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B46">
-    <cfRule type="duplicateValues" dxfId="822" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="842" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B46">
-    <cfRule type="duplicateValues" dxfId="821" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="841" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B46">
-    <cfRule type="duplicateValues" dxfId="820" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="840" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="819" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="839" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="818" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="838" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B47">
-    <cfRule type="duplicateValues" dxfId="817" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="837" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:B47">
-    <cfRule type="duplicateValues" dxfId="816" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="836" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="815" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="835" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="814" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="834" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="813" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="833" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -29192,8 +29401,8 @@
   <dimension ref="A1:G978"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29490,8 +29699,8 @@
       <c r="A18" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>123</v>
+      <c r="B18" s="5" t="s">
+        <v>657</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -29506,8 +29715,8 @@
       <c r="A19" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>125</v>
+      <c r="B19" s="4" t="s">
+        <v>655</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -35968,462 +36177,522 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A104:A1048576 A94:A98 A49 A1:A2 A65 A14">
-    <cfRule type="duplicateValues" dxfId="812" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="832" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="811" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="831" priority="290"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="810" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="830" priority="289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="809" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="829" priority="288"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="808" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="828" priority="287"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="807" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="827" priority="286"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="806" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="826" priority="285"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="805" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="825" priority="282"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="804" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="824" priority="281"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="803" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="823" priority="280"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="802" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="822" priority="278"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="801" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="821" priority="277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A28">
-    <cfRule type="duplicateValues" dxfId="800" priority="238"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B26 B28">
-    <cfRule type="duplicateValues" dxfId="799" priority="237"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B26 B28:B30">
-    <cfRule type="duplicateValues" dxfId="798" priority="234"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104:B1048576 A94:B98 A1:B26 A49:B49 B46:B48 A65:B65 B66 A28:B30 A27">
-    <cfRule type="duplicateValues" dxfId="797" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="820" priority="258"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B17 B28 B20:B26">
+    <cfRule type="duplicateValues" dxfId="819" priority="257"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B17 B28:B30 B20:B26">
+    <cfRule type="duplicateValues" dxfId="818" priority="254"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104:B1048576 A94:B98 A1:B17 A49:B49 B46:B48 A65:B65 B66 A28:B30 A27 A20:B26 A18:A19">
+    <cfRule type="duplicateValues" dxfId="817" priority="253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="796" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="816" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="795" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="815" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B36">
-    <cfRule type="duplicateValues" dxfId="794" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="814" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="793" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="813" priority="232"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B38">
-    <cfRule type="duplicateValues" dxfId="792" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="812" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="duplicateValues" dxfId="791" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="811" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B66">
-    <cfRule type="duplicateValues" dxfId="790" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="810" priority="222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B66">
-    <cfRule type="duplicateValues" dxfId="789" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="809" priority="221"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="788" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="808" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="787" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="807" priority="209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="786" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="806" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="785" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="805" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="784" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="804" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="783" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="803" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B45">
-    <cfRule type="duplicateValues" dxfId="782" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="802" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
+    <cfRule type="duplicateValues" dxfId="801" priority="193"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B45">
+    <cfRule type="duplicateValues" dxfId="800" priority="192"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B45">
+    <cfRule type="duplicateValues" dxfId="799" priority="191"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B45">
+    <cfRule type="duplicateValues" dxfId="798" priority="190"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B45">
+    <cfRule type="duplicateValues" dxfId="797" priority="189"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:A47">
+    <cfRule type="duplicateValues" dxfId="796" priority="187"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:B35">
+    <cfRule type="duplicateValues" dxfId="795" priority="671"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:B35">
+    <cfRule type="duplicateValues" dxfId="794" priority="673"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104:B1048576 B94:B98 B1:B17 B46:B49 B65:B66 B28:B30 B20:B26">
+    <cfRule type="duplicateValues" dxfId="793" priority="696"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104:B1048576 B94:B98 B1:B17 B46:B49 B65:B66 B28:B39 B20:B26">
+    <cfRule type="duplicateValues" dxfId="792" priority="699"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104:B1048576 B94:B98 B1:B17 B46:B49 B65:B66 B28:B42 B20:B26">
+    <cfRule type="duplicateValues" dxfId="791" priority="702"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:B49 B65:B66">
+    <cfRule type="duplicateValues" dxfId="790" priority="705"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104:B1048576 B94:B98 B46:B49 B65:B66">
+    <cfRule type="duplicateValues" dxfId="789" priority="709"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="duplicateValues" dxfId="788" priority="181"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B51">
+    <cfRule type="duplicateValues" dxfId="787" priority="178"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B51">
+    <cfRule type="duplicateValues" dxfId="786" priority="177"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B51">
+    <cfRule type="duplicateValues" dxfId="785" priority="176"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B51">
+    <cfRule type="duplicateValues" dxfId="784" priority="179"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B51">
+    <cfRule type="duplicateValues" dxfId="783" priority="180"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="duplicateValues" dxfId="782" priority="175"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:A60">
     <cfRule type="duplicateValues" dxfId="781" priority="173"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:B45">
+  <conditionalFormatting sqref="A61:A62">
     <cfRule type="duplicateValues" dxfId="780" priority="172"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="779" priority="171"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="778" priority="170"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:B45">
+  <conditionalFormatting sqref="B63">
+    <cfRule type="duplicateValues" dxfId="779" priority="170"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="duplicateValues" dxfId="778" priority="171"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
     <cfRule type="duplicateValues" dxfId="777" priority="169"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:A47">
-    <cfRule type="duplicateValues" dxfId="776" priority="167"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31:B35">
-    <cfRule type="duplicateValues" dxfId="775" priority="651"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:B35">
-    <cfRule type="duplicateValues" dxfId="774" priority="653"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104:B1048576 B94:B98 B1:B26 B46:B49 B65:B66 B28:B30">
-    <cfRule type="duplicateValues" dxfId="773" priority="676"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104:B1048576 B94:B98 B1:B26 B46:B49 B65:B66 B28:B39">
-    <cfRule type="duplicateValues" dxfId="772" priority="679"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104:B1048576 B94:B98 B1:B26 B46:B49 B65:B66 B28:B42">
-    <cfRule type="duplicateValues" dxfId="771" priority="682"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46:B49 B65:B66">
-    <cfRule type="duplicateValues" dxfId="770" priority="685"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104:B1048576 B94:B98 B46:B49 B65:B66">
-    <cfRule type="duplicateValues" dxfId="769" priority="689"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="768" priority="161"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B51">
-    <cfRule type="duplicateValues" dxfId="767" priority="158"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B51">
-    <cfRule type="duplicateValues" dxfId="766" priority="157"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B51">
-    <cfRule type="duplicateValues" dxfId="765" priority="156"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B51">
-    <cfRule type="duplicateValues" dxfId="764" priority="159"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B51">
-    <cfRule type="duplicateValues" dxfId="763" priority="160"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="duplicateValues" dxfId="762" priority="155"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:A60">
-    <cfRule type="duplicateValues" dxfId="761" priority="153"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A62">
-    <cfRule type="duplicateValues" dxfId="760" priority="152"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
-    <cfRule type="duplicateValues" dxfId="759" priority="150"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
-    <cfRule type="duplicateValues" dxfId="758" priority="151"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="757" priority="149"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104:B1048576 B94:B98 B1:B26 B28:B66">
-    <cfRule type="duplicateValues" dxfId="756" priority="148"/>
+  <conditionalFormatting sqref="B104:B1048576 B94:B98 B1:B17 B28:B66 B20:B26">
+    <cfRule type="duplicateValues" dxfId="776" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="755" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="775" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="754" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="774" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="753" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="773" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="752" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="772" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="751" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="771" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="750" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="770" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="749" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="769" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="748" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="768" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="747" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="767" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="746" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="766" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="745" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="765" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:A1048576 A94:A98 A1:A85">
-    <cfRule type="duplicateValues" dxfId="744" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="764" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67 A70:A85">
-    <cfRule type="duplicateValues" dxfId="743" priority="1133"/>
+    <cfRule type="duplicateValues" dxfId="763" priority="1153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:B67 B69 A70:B85">
-    <cfRule type="duplicateValues" dxfId="742" priority="1136"/>
+    <cfRule type="duplicateValues" dxfId="762" priority="1156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67 B69:B85">
-    <cfRule type="duplicateValues" dxfId="741" priority="1140"/>
+    <cfRule type="duplicateValues" dxfId="761" priority="1160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="duplicateValues" dxfId="740" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="760" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93 A86:B86">
-    <cfRule type="duplicateValues" dxfId="739" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="759" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="duplicateValues" dxfId="738" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="758" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93 B86">
-    <cfRule type="duplicateValues" dxfId="737" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="757" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="736" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="756" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="735" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="755" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="734" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="754" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="733" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="753" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="732" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="752" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="duplicateValues" dxfId="731" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="751" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:B91 B88:B90">
-    <cfRule type="duplicateValues" dxfId="730" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="750" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B91">
-    <cfRule type="duplicateValues" dxfId="729" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="749" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B91">
-    <cfRule type="duplicateValues" dxfId="728" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="748" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B91">
-    <cfRule type="duplicateValues" dxfId="727" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="747" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B91">
-    <cfRule type="duplicateValues" dxfId="726" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="746" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B91">
-    <cfRule type="duplicateValues" dxfId="725" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="745" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B91">
-    <cfRule type="duplicateValues" dxfId="724" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="744" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B91">
-    <cfRule type="duplicateValues" dxfId="723" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="743" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87:A90">
-    <cfRule type="duplicateValues" dxfId="722" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="742" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="721" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="741" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="720" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="740" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:B92">
-    <cfRule type="duplicateValues" dxfId="719" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="739" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:B92">
-    <cfRule type="duplicateValues" dxfId="718" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="738" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="717" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="737" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="716" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="736" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="715" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="735" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="714" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="734" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="713" priority="95"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G2 A3:F26 G3:G105 A28:F95 A27 C27:F27">
-    <cfRule type="duplicateValues" dxfId="712" priority="94"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104:B1048576 B1:B26 B28:B98">
-    <cfRule type="duplicateValues" dxfId="711" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="733" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G2 A3:F17 G3:G105 A28:F95 A27 C27:F27 A20:F26 A18:A19 C18:F19">
+    <cfRule type="duplicateValues" dxfId="732" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104:B1048576 B1:B17 B28:B98 B20:B26">
+    <cfRule type="duplicateValues" dxfId="731" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="710" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="730" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:B99">
-    <cfRule type="duplicateValues" dxfId="709" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="729" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="708" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="728" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="707" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="727" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="706" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="726" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="705" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="725" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="704" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="724" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="703" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="723" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="702" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104:B1048576 B1:B26 B28:B99">
-    <cfRule type="duplicateValues" dxfId="701" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="722" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104:B1048576 B1:B17 B28:B99 B20:B26">
+    <cfRule type="duplicateValues" dxfId="721" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="700" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="720" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:B100">
-    <cfRule type="duplicateValues" dxfId="699" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="719" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="698" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="718" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="697" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="717" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="696" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="716" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="695" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="715" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="694" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="714" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="693" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="713" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="692" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="712" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="691" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="711" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:B101">
-    <cfRule type="duplicateValues" dxfId="690" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="710" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="689" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="709" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="688" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="708" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="687" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="707" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="686" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="706" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="685" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="705" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="684" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="704" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="683" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="703" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100:B101">
-    <cfRule type="duplicateValues" dxfId="682" priority="1681"/>
+    <cfRule type="duplicateValues" dxfId="702" priority="1701"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:A101">
-    <cfRule type="duplicateValues" dxfId="681" priority="1683"/>
+    <cfRule type="duplicateValues" dxfId="701" priority="1703"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:A103">
-    <cfRule type="duplicateValues" dxfId="680" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="700" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:B103">
-    <cfRule type="duplicateValues" dxfId="679" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="699" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102:B103">
+    <cfRule type="duplicateValues" dxfId="698" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B102:B103">
+    <cfRule type="duplicateValues" dxfId="697" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B102:B103">
+    <cfRule type="duplicateValues" dxfId="696" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B102:B103">
+    <cfRule type="duplicateValues" dxfId="695" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B102:B103">
+    <cfRule type="duplicateValues" dxfId="694" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102:A103">
+    <cfRule type="duplicateValues" dxfId="693" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B102:B103">
+    <cfRule type="duplicateValues" dxfId="692" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B102:B103">
+    <cfRule type="duplicateValues" dxfId="691" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102:A103">
+    <cfRule type="duplicateValues" dxfId="690" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="689" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="688" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="687" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="686" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="685" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="684" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="683" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="682" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="681" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="680" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="duplicateValues" dxfId="679" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
     <cfRule type="duplicateValues" dxfId="678" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B102:B103">
-    <cfRule type="duplicateValues" dxfId="677" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B102:B103">
+  <conditionalFormatting sqref="B19">
+    <cfRule type="duplicateValues" dxfId="677" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
     <cfRule type="duplicateValues" dxfId="676" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B102:B103">
+  <conditionalFormatting sqref="B19">
     <cfRule type="duplicateValues" dxfId="675" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B102:B103">
-    <cfRule type="duplicateValues" dxfId="674" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A102:A103">
-    <cfRule type="duplicateValues" dxfId="673" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B102:B103">
-    <cfRule type="duplicateValues" dxfId="672" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B102:B103">
-    <cfRule type="duplicateValues" dxfId="671" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A102:A103">
-    <cfRule type="duplicateValues" dxfId="670" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
+  <conditionalFormatting sqref="B19">
+    <cfRule type="duplicateValues" dxfId="674" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="duplicateValues" dxfId="673" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="duplicateValues" dxfId="672" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="duplicateValues" dxfId="671" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="duplicateValues" dxfId="670" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
     <cfRule type="duplicateValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
+  <conditionalFormatting sqref="B18">
     <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
+  <conditionalFormatting sqref="B18">
     <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
+  <conditionalFormatting sqref="B18">
     <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
+  <conditionalFormatting sqref="B18">
     <cfRule type="duplicateValues" dxfId="5" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
+  <conditionalFormatting sqref="B18">
     <cfRule type="duplicateValues" dxfId="4" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
+  <conditionalFormatting sqref="B18">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
+  <conditionalFormatting sqref="B18">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
+  <conditionalFormatting sqref="B18">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
+  <conditionalFormatting sqref="B18">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Framework/Storage/ObjectRepository.xlsx
+++ b/Framework/Storage/ObjectRepository.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="833" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WebLink" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="788">
   <si>
     <t>ObjectName</t>
   </si>
@@ -2388,6 +2388,12 @@
   </si>
   <si>
     <t>//table[@summary="Pick Network Node"]</t>
+  </si>
+  <si>
+    <t>SpendLimit</t>
+  </si>
+  <si>
+    <t>//button[@title='Details:Change Limit']</t>
   </si>
 </sst>
 </file>
@@ -2545,7 +2551,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="981">
+  <dxfs count="984">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -18823,232 +18859,232 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A72:A1048576 A1:A2 A15 A17:A18 A21 A30">
-    <cfRule type="duplicateValues" dxfId="980" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="983" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A1048576 A1:A2 A15 A17:A18 A21 A30">
-    <cfRule type="duplicateValues" dxfId="979" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="982" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="978" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="981" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="977" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="980" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="976" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="979" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="975" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="978" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="974" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="977" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="973" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="976" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="972" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="975" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="971" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="974" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="970" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="973" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="969" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="972" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="968" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="971" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B1048576 A1:B13 A15:B15 A17:B18 A21:B21 A30:B30">
-    <cfRule type="duplicateValues" dxfId="967" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="970" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:B1048576">
-    <cfRule type="duplicateValues" dxfId="966" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="969" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A13">
-    <cfRule type="duplicateValues" dxfId="965" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="968" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="964" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="967" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B1048576 B1:B15 B17:B18 B21 B30">
-    <cfRule type="duplicateValues" dxfId="963" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="966" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="962" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="965" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20">
-    <cfRule type="duplicateValues" dxfId="961" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="964" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="960" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="963" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B20">
-    <cfRule type="duplicateValues" dxfId="959" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="962" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="duplicateValues" dxfId="958" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="961" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="957" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="960" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="956" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="959" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B1048576 B1:B22 B30">
-    <cfRule type="duplicateValues" dxfId="955" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="958" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A28">
-    <cfRule type="duplicateValues" dxfId="954" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="957" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B28">
-    <cfRule type="duplicateValues" dxfId="953" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="956" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B1048576 B1:B42">
-    <cfRule type="duplicateValues" dxfId="952" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="955" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="951" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="954" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="950" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="953" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="duplicateValues" dxfId="949" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="952" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B44">
-    <cfRule type="duplicateValues" dxfId="948" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="951" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="947" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="950" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="946" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="949" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="945" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="948" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A48">
-    <cfRule type="duplicateValues" dxfId="944" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="947" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A48">
-    <cfRule type="duplicateValues" dxfId="943" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="946" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B48">
-    <cfRule type="duplicateValues" dxfId="942" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="945" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B48">
-    <cfRule type="duplicateValues" dxfId="941" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="944" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="940" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="943" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="939" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="942" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="duplicateValues" dxfId="938" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="941" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A1048576 A1:A48">
-    <cfRule type="duplicateValues" dxfId="937" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="940" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="936" priority="2055"/>
+    <cfRule type="duplicateValues" dxfId="939" priority="2055"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="935" priority="2056"/>
+    <cfRule type="duplicateValues" dxfId="938" priority="2056"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:B43">
-    <cfRule type="duplicateValues" dxfId="934" priority="2057"/>
+    <cfRule type="duplicateValues" dxfId="937" priority="2057"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="933" priority="2059"/>
+    <cfRule type="duplicateValues" dxfId="936" priority="2059"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A42">
-    <cfRule type="duplicateValues" dxfId="932" priority="2112"/>
+    <cfRule type="duplicateValues" dxfId="935" priority="2112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A42">
-    <cfRule type="duplicateValues" dxfId="931" priority="2113"/>
+    <cfRule type="duplicateValues" dxfId="934" priority="2113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B42">
-    <cfRule type="duplicateValues" dxfId="930" priority="2114"/>
+    <cfRule type="duplicateValues" dxfId="933" priority="2114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B42">
-    <cfRule type="duplicateValues" dxfId="929" priority="2115"/>
+    <cfRule type="duplicateValues" dxfId="932" priority="2115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B1048576 B1:B48">
-    <cfRule type="duplicateValues" dxfId="928" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="931" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A1048576">
-    <cfRule type="duplicateValues" dxfId="927" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="930" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="926" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="929" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="925" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="928" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B62">
-    <cfRule type="duplicateValues" dxfId="924" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="927" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B62">
-    <cfRule type="duplicateValues" dxfId="923" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="926" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B62">
-    <cfRule type="duplicateValues" dxfId="922" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="925" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B62">
-    <cfRule type="duplicateValues" dxfId="921" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="924" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B62">
-    <cfRule type="duplicateValues" dxfId="920" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="923" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="919" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="922" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B62">
-    <cfRule type="duplicateValues" dxfId="918" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="921" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:A62">
-    <cfRule type="duplicateValues" dxfId="917" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="920" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B62 A71:B1048576">
-    <cfRule type="duplicateValues" dxfId="916" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="919" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A70">
-    <cfRule type="duplicateValues" dxfId="915" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="918" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A70">
-    <cfRule type="duplicateValues" dxfId="914" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="917" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B70">
-    <cfRule type="duplicateValues" dxfId="913" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="916" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B70">
-    <cfRule type="duplicateValues" dxfId="912" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="915" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B70">
-    <cfRule type="duplicateValues" dxfId="911" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="914" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B70">
-    <cfRule type="duplicateValues" dxfId="910" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="913" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B70">
-    <cfRule type="duplicateValues" dxfId="909" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="912" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A70">
-    <cfRule type="duplicateValues" dxfId="908" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="911" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B70">
-    <cfRule type="duplicateValues" dxfId="907" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="910" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A70">
-    <cfRule type="duplicateValues" dxfId="906" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="909" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B70">
-    <cfRule type="duplicateValues" dxfId="905" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="908" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -25102,16 +25138,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A25 A27:A37">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A7">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -31149,7 +31185,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31194,7 +31230,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31205,9 +31241,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G974"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32296,7 +32332,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="10"/>
       <c r="G67" s="4" t="str">
-        <f t="shared" ref="G67:G126" si="1">IF(A67&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A67&amp;CHAR(34)&amp;");","")</f>
+        <f t="shared" ref="G67:G128" si="1">IF(A67&lt;&gt;"","Browser.WebButton.click("&amp;CHAR(34)&amp;A67&amp;CHAR(34)&amp;");","")</f>
         <v>Browser.WebButton.click("GO");</v>
       </c>
     </row>
@@ -33257,7 +33293,26 @@
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
+      <c r="G127" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Browser.WebButton.click("Bill_acc_add");</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>787</v>
+      </c>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Browser.WebButton.click("SpendLimit");</v>
+      </c>
     </row>
     <row r="130" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G130" t="str">
@@ -38330,97 +38385,106 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A128:A1048576 A94:A98 A49 A1:A2 A65 A14">
-    <cfRule type="duplicateValues" dxfId="904" priority="361"/>
+  <conditionalFormatting sqref="A129:A1048576 A94:A98 A49 A1:A2 A65 A14">
+    <cfRule type="duplicateValues" dxfId="907" priority="364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="906" priority="357"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="905" priority="356"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="904" priority="355"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
     <cfRule type="duplicateValues" dxfId="903" priority="354"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A7">
     <cfRule type="duplicateValues" dxfId="902" priority="353"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
+  <conditionalFormatting sqref="A8:A9">
     <cfRule type="duplicateValues" dxfId="901" priority="352"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="900" priority="351"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="899" priority="350"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="898" priority="349"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="897" priority="346"/>
+    <cfRule type="duplicateValues" dxfId="900" priority="349"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="896" priority="345"/>
+    <cfRule type="duplicateValues" dxfId="899" priority="348"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="895" priority="344"/>
+    <cfRule type="duplicateValues" dxfId="898" priority="347"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="894" priority="342"/>
+    <cfRule type="duplicateValues" dxfId="897" priority="345"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="893" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="896" priority="344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A28">
-    <cfRule type="duplicateValues" dxfId="892" priority="322"/>
+    <cfRule type="duplicateValues" dxfId="895" priority="325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17 B28 B20:B26">
-    <cfRule type="duplicateValues" dxfId="891" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="894" priority="324"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17 B28:B30 B20:B26">
-    <cfRule type="duplicateValues" dxfId="890" priority="318"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128:B1048576 A94:B98 A1:B17 A49:B49 B46:B48 A65:B65 B66 A28:B30 A27 A20:B26 A18:A19">
-    <cfRule type="duplicateValues" dxfId="889" priority="317"/>
+    <cfRule type="duplicateValues" dxfId="893" priority="321"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A129:B1048576 A94:B98 A1:B17 A49:B49 B46:B48 A65:B65 B66 A28:B30 A27 A20:B26 A18:A19">
+    <cfRule type="duplicateValues" dxfId="892" priority="320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="888" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="891" priority="307"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="887" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="890" priority="301"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:B36">
-    <cfRule type="duplicateValues" dxfId="886" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="889" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="885" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="888" priority="299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B38">
-    <cfRule type="duplicateValues" dxfId="884" priority="293"/>
+    <cfRule type="duplicateValues" dxfId="887" priority="296"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="duplicateValues" dxfId="883" priority="292"/>
+    <cfRule type="duplicateValues" dxfId="886" priority="295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B66">
-    <cfRule type="duplicateValues" dxfId="882" priority="286"/>
+    <cfRule type="duplicateValues" dxfId="885" priority="289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B66">
-    <cfRule type="duplicateValues" dxfId="881" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="884" priority="288"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="880" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="883" priority="278"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="879" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="882" priority="276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="878" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="881" priority="274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="877" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="880" priority="273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="876" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="879" priority="272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="875" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="878" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:B45">
+    <cfRule type="duplicateValues" dxfId="877" priority="261"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B45">
+    <cfRule type="duplicateValues" dxfId="876" priority="260"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B45">
+    <cfRule type="duplicateValues" dxfId="875" priority="259"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B45">
     <cfRule type="duplicateValues" dxfId="874" priority="258"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45">
@@ -38429,539 +38493,530 @@
   <conditionalFormatting sqref="B44:B45">
     <cfRule type="duplicateValues" dxfId="872" priority="256"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="871" priority="255"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="870" priority="254"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:B45">
-    <cfRule type="duplicateValues" dxfId="869" priority="253"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A46:A47">
-    <cfRule type="duplicateValues" dxfId="868" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="871" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B35">
-    <cfRule type="duplicateValues" dxfId="867" priority="735"/>
+    <cfRule type="duplicateValues" dxfId="870" priority="738"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B35">
-    <cfRule type="duplicateValues" dxfId="866" priority="737"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:B1048576 B94:B98 B1:B17 B46:B49 B65:B66 B28:B30 B20:B26">
-    <cfRule type="duplicateValues" dxfId="865" priority="760"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:B1048576 B94:B98 B1:B17 B46:B49 B65:B66 B28:B39 B20:B26">
-    <cfRule type="duplicateValues" dxfId="864" priority="763"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:B1048576 B94:B98 B1:B17 B46:B49 B65:B66 B28:B42 B20:B26">
-    <cfRule type="duplicateValues" dxfId="863" priority="766"/>
+    <cfRule type="duplicateValues" dxfId="869" priority="740"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129:B1048576 B94:B98 B1:B17 B46:B49 B65:B66 B28:B30 B20:B26">
+    <cfRule type="duplicateValues" dxfId="868" priority="763"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129:B1048576 B94:B98 B1:B17 B46:B49 B65:B66 B28:B39 B20:B26">
+    <cfRule type="duplicateValues" dxfId="867" priority="766"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129:B1048576 B94:B98 B1:B17 B46:B49 B65:B66 B28:B42 B20:B26">
+    <cfRule type="duplicateValues" dxfId="866" priority="769"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B49 B65:B66">
-    <cfRule type="duplicateValues" dxfId="862" priority="769"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:B1048576 B94:B98 B46:B49 B65:B66">
-    <cfRule type="duplicateValues" dxfId="861" priority="773"/>
+    <cfRule type="duplicateValues" dxfId="865" priority="772"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129:B1048576 B94:B98 B46:B49 B65:B66">
+    <cfRule type="duplicateValues" dxfId="864" priority="776"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="860" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="863" priority="248"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B51">
-    <cfRule type="duplicateValues" dxfId="859" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="862" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B51">
-    <cfRule type="duplicateValues" dxfId="858" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="861" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B51">
-    <cfRule type="duplicateValues" dxfId="857" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="860" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B51">
-    <cfRule type="duplicateValues" dxfId="856" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="859" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B51">
-    <cfRule type="duplicateValues" dxfId="855" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="858" priority="247"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="duplicateValues" dxfId="854" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="857" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:A60">
-    <cfRule type="duplicateValues" dxfId="853" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="856" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:A62">
+    <cfRule type="duplicateValues" dxfId="855" priority="239"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="duplicateValues" dxfId="854" priority="237"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="duplicateValues" dxfId="853" priority="238"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
     <cfRule type="duplicateValues" dxfId="852" priority="236"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
-    <cfRule type="duplicateValues" dxfId="851" priority="234"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
-    <cfRule type="duplicateValues" dxfId="850" priority="235"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="849" priority="233"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:B1048576 B94:B98 B1:B17 B28:B66 B20:B26">
-    <cfRule type="duplicateValues" dxfId="848" priority="232"/>
+  <conditionalFormatting sqref="B129:B1048576 B94:B98 B1:B17 B28:B66 B20:B26">
+    <cfRule type="duplicateValues" dxfId="851" priority="235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="847" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="850" priority="222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="846" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="849" priority="221"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="845" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="848" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="844" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="847" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="843" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="846" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="842" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="845" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="841" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="844" priority="217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="840" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="843" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="839" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="842" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="838" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="841" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="837" priority="209"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128:A1048576 A94:A98 A1:A85">
-    <cfRule type="duplicateValues" dxfId="836" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="840" priority="212"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A129:A1048576 A94:A98 A1:A85">
+    <cfRule type="duplicateValues" dxfId="839" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67 A70:A85">
-    <cfRule type="duplicateValues" dxfId="835" priority="1217"/>
+    <cfRule type="duplicateValues" dxfId="838" priority="1220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:B67 B69 A70:B85">
-    <cfRule type="duplicateValues" dxfId="834" priority="1220"/>
+    <cfRule type="duplicateValues" dxfId="837" priority="1223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67 B69:B85">
-    <cfRule type="duplicateValues" dxfId="833" priority="1224"/>
+    <cfRule type="duplicateValues" dxfId="836" priority="1227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
+    <cfRule type="duplicateValues" dxfId="835" priority="205"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93 A86:B86">
+    <cfRule type="duplicateValues" dxfId="834" priority="204"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B86">
+    <cfRule type="duplicateValues" dxfId="833" priority="203"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93 B86">
     <cfRule type="duplicateValues" dxfId="832" priority="202"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B93 A86:B86">
-    <cfRule type="duplicateValues" dxfId="831" priority="201"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B86">
-    <cfRule type="duplicateValues" dxfId="830" priority="200"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B93 B86">
-    <cfRule type="duplicateValues" dxfId="829" priority="199"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="828" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="831" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="827" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="830" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="826" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="829" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="825" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="828" priority="209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="824" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="827" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
+    <cfRule type="duplicateValues" dxfId="826" priority="196"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91:B91 B88:B90">
+    <cfRule type="duplicateValues" dxfId="825" priority="195"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B88:B91">
+    <cfRule type="duplicateValues" dxfId="824" priority="194"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B88:B91">
     <cfRule type="duplicateValues" dxfId="823" priority="193"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91:B91 B88:B90">
-    <cfRule type="duplicateValues" dxfId="822" priority="192"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B88:B91">
-    <cfRule type="duplicateValues" dxfId="821" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="822" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B91">
-    <cfRule type="duplicateValues" dxfId="820" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="821" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B91">
-    <cfRule type="duplicateValues" dxfId="819" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="820" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B91">
-    <cfRule type="duplicateValues" dxfId="818" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="819" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B91">
-    <cfRule type="duplicateValues" dxfId="817" priority="196"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B88:B91">
-    <cfRule type="duplicateValues" dxfId="816" priority="197"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B88:B91">
-    <cfRule type="duplicateValues" dxfId="815" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="818" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87:A90">
+    <cfRule type="duplicateValues" dxfId="817" priority="191"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92">
+    <cfRule type="duplicateValues" dxfId="816" priority="190"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92">
+    <cfRule type="duplicateValues" dxfId="815" priority="189"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:B92">
     <cfRule type="duplicateValues" dxfId="814" priority="188"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
+  <conditionalFormatting sqref="A92:B92">
     <cfRule type="duplicateValues" dxfId="813" priority="187"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
+  <conditionalFormatting sqref="B92">
     <cfRule type="duplicateValues" dxfId="812" priority="186"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92:B92">
+  <conditionalFormatting sqref="A93">
     <cfRule type="duplicateValues" dxfId="811" priority="185"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92:B92">
+  <conditionalFormatting sqref="A93">
     <cfRule type="duplicateValues" dxfId="810" priority="184"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B92">
+  <conditionalFormatting sqref="A93">
     <cfRule type="duplicateValues" dxfId="809" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
     <cfRule type="duplicateValues" dxfId="808" priority="182"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
+  <conditionalFormatting sqref="A1:G2 A3:F17 G3:G101 A28:F95 A27 C27:F27 A20:F26 A18:A19 C18:F19">
     <cfRule type="duplicateValues" dxfId="807" priority="181"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="806" priority="180"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="805" priority="179"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G2 A3:F17 G3:G101 A28:F95 A27 C27:F27 A20:F26 A18:A19 C18:F19">
-    <cfRule type="duplicateValues" dxfId="804" priority="178"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:B1048576 B1:B17 B28:B98 B20:B26">
-    <cfRule type="duplicateValues" dxfId="803" priority="168"/>
+  <conditionalFormatting sqref="B129:B1048576 B1:B17 B28:B98 B20:B26">
+    <cfRule type="duplicateValues" dxfId="806" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="802" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="805" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:B99">
-    <cfRule type="duplicateValues" dxfId="801" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="804" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="800" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="803" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="799" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="802" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="798" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="801" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="797" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="800" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="796" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="799" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="795" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="798" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="794" priority="158"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:B1048576 B1:B17 B28:B99 B20:B26">
-    <cfRule type="duplicateValues" dxfId="793" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="797" priority="161"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129:B1048576 B1:B17 B28:B99 B20:B26">
+    <cfRule type="duplicateValues" dxfId="796" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="792" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="795" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:B100">
-    <cfRule type="duplicateValues" dxfId="791" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="794" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="790" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="793" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="789" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="792" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="788" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="791" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="787" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="790" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="786" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="789" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="785" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="788" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="784" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="787" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="783" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="786" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:B101">
-    <cfRule type="duplicateValues" dxfId="782" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="785" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="781" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="784" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="780" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="783" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="779" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="782" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="778" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="781" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="777" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="780" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="776" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="779" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="775" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="778" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100:B101">
-    <cfRule type="duplicateValues" dxfId="774" priority="1765"/>
+    <cfRule type="duplicateValues" dxfId="777" priority="1768"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:A101">
-    <cfRule type="duplicateValues" dxfId="773" priority="1767"/>
+    <cfRule type="duplicateValues" dxfId="776" priority="1770"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="772" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="775" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="771" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="774" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="770" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="773" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="769" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="772" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="768" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="771" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="767" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="770" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="769" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="768" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="767" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
     <cfRule type="duplicateValues" dxfId="766" priority="88"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="765" priority="87"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="764" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="763" priority="85"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="762" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="765" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="761" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="764" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="760" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="763" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="759" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="762" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="758" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="761" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="757" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="760" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="duplicateValues" dxfId="759" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="duplicateValues" dxfId="758" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="duplicateValues" dxfId="757" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
     <cfRule type="duplicateValues" dxfId="756" priority="78"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="755" priority="77"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="754" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="753" priority="75"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="752" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="755" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="751" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="754" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="750" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="753" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="749" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="752" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="748" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="751" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="747" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="750" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="duplicateValues" dxfId="749" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="duplicateValues" dxfId="748" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="duplicateValues" dxfId="747" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
     <cfRule type="duplicateValues" dxfId="746" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="745" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="744" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="743" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G102:G125">
-    <cfRule type="duplicateValues" dxfId="742" priority="62"/>
+  <conditionalFormatting sqref="G102:G128">
+    <cfRule type="duplicateValues" dxfId="745" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:A115">
-    <cfRule type="duplicateValues" dxfId="741" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="744" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:B115">
-    <cfRule type="duplicateValues" dxfId="740" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="743" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102:B115">
-    <cfRule type="duplicateValues" dxfId="739" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="742" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102:B115">
-    <cfRule type="duplicateValues" dxfId="738" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="741" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102:B115">
-    <cfRule type="duplicateValues" dxfId="737" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="740" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102:B115">
-    <cfRule type="duplicateValues" dxfId="736" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="739" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102:B115">
-    <cfRule type="duplicateValues" dxfId="735" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="738" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:A115">
-    <cfRule type="duplicateValues" dxfId="734" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="737" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102:B115">
-    <cfRule type="duplicateValues" dxfId="733" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="736" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102:B115">
-    <cfRule type="duplicateValues" dxfId="732" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="735" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:A115">
-    <cfRule type="duplicateValues" dxfId="731" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="734" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:A118">
-    <cfRule type="duplicateValues" dxfId="730" priority="2034"/>
+    <cfRule type="duplicateValues" dxfId="733" priority="2037"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:B118">
-    <cfRule type="duplicateValues" dxfId="729" priority="2035"/>
+    <cfRule type="duplicateValues" dxfId="732" priority="2038"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116:B118">
-    <cfRule type="duplicateValues" dxfId="728" priority="2036"/>
+    <cfRule type="duplicateValues" dxfId="731" priority="2039"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:A118">
-    <cfRule type="duplicateValues" dxfId="727" priority="2041"/>
+    <cfRule type="duplicateValues" dxfId="730" priority="2044"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:A120 A122">
-    <cfRule type="duplicateValues" dxfId="726" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="729" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:B120 A122:B122">
-    <cfRule type="duplicateValues" dxfId="725" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="728" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119:B120 B122">
-    <cfRule type="duplicateValues" dxfId="724" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="727" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119:B120 B122">
-    <cfRule type="duplicateValues" dxfId="723" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="726" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119:B120 B122">
-    <cfRule type="duplicateValues" dxfId="722" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="725" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119:B120 B122">
-    <cfRule type="duplicateValues" dxfId="721" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="724" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B119:B120 B122">
+    <cfRule type="duplicateValues" dxfId="723" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119:A120 A122">
+    <cfRule type="duplicateValues" dxfId="722" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B119:B120 B122">
+    <cfRule type="duplicateValues" dxfId="721" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119:B120 B122">
     <cfRule type="duplicateValues" dxfId="720" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A119:A120 A122">
+  <conditionalFormatting sqref="A121">
     <cfRule type="duplicateValues" dxfId="719" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B119:B120 B122">
+  <conditionalFormatting sqref="A121">
     <cfRule type="duplicateValues" dxfId="718" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B119:B120 B122">
+  <conditionalFormatting sqref="A121:B121">
     <cfRule type="duplicateValues" dxfId="717" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A121">
+  <conditionalFormatting sqref="A121:B121">
     <cfRule type="duplicateValues" dxfId="716" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A121">
+  <conditionalFormatting sqref="B121">
     <cfRule type="duplicateValues" dxfId="715" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:B121">
     <cfRule type="duplicateValues" dxfId="714" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A121:B121">
+  <conditionalFormatting sqref="B121">
     <cfRule type="duplicateValues" dxfId="713" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121">
     <cfRule type="duplicateValues" dxfId="712" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A121:B121">
+  <conditionalFormatting sqref="A119:A125">
     <cfRule type="duplicateValues" dxfId="711" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B121">
+  <conditionalFormatting sqref="A123">
     <cfRule type="duplicateValues" dxfId="710" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B121">
+  <conditionalFormatting sqref="A123">
     <cfRule type="duplicateValues" dxfId="709" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A119:A125">
+  <conditionalFormatting sqref="A123">
     <cfRule type="duplicateValues" dxfId="708" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A123">
+  <conditionalFormatting sqref="A129:A1048576 A1:A125">
     <cfRule type="duplicateValues" dxfId="707" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="706" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="705" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128:A1048576 A1:A125">
-    <cfRule type="duplicateValues" dxfId="704" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128:B1048576 A1:B125">
+  <conditionalFormatting sqref="A129:B1048576 A1:B125">
+    <cfRule type="duplicateValues" dxfId="706" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A129:B1048576">
+    <cfRule type="duplicateValues" dxfId="705" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126">
     <cfRule type="duplicateValues" dxfId="703" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A128:B1048576">
+  <conditionalFormatting sqref="A126">
     <cfRule type="duplicateValues" dxfId="702" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G126">
+  <conditionalFormatting sqref="A126:B126">
     <cfRule type="duplicateValues" dxfId="701" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
+  <conditionalFormatting sqref="A126:B126">
     <cfRule type="duplicateValues" dxfId="700" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="699" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="698" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126:B126">
-    <cfRule type="duplicateValues" dxfId="697" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G127">
-    <cfRule type="duplicateValues" dxfId="696" priority="2191"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="695" priority="2192"/>
+    <cfRule type="duplicateValues" dxfId="698" priority="2195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127:B127">
-    <cfRule type="duplicateValues" dxfId="694" priority="2194"/>
+    <cfRule type="duplicateValues" dxfId="697" priority="2197"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128:B128">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -45682,220 +45737,220 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="693" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="696" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10 A4:A5 A7:A8">
-    <cfRule type="duplicateValues" dxfId="692" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="695" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="691" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="694" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="690" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="693" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="689" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="692" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="688" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="691" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B15">
-    <cfRule type="duplicateValues" dxfId="687" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="690" priority="217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="686" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="689" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21">
-    <cfRule type="duplicateValues" dxfId="685" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="688" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="684" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="687" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="683" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="686" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="682" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="685" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="681" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="684" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="680" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="683" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="679" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="682" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="678" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="681" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="677" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="680" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="676" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="679" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B38">
-    <cfRule type="duplicateValues" dxfId="675" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="678" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A40">
-    <cfRule type="duplicateValues" dxfId="674" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="677" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 A39">
-    <cfRule type="duplicateValues" dxfId="673" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="676" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 A39">
-    <cfRule type="duplicateValues" dxfId="672" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="675" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="671" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="674" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="670" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="673" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A53 A55:A56">
-    <cfRule type="duplicateValues" dxfId="669" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="672" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:B53 A55:B56 B54">
-    <cfRule type="duplicateValues" dxfId="668" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="671" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B56">
-    <cfRule type="duplicateValues" dxfId="667" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="670" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B64">
-    <cfRule type="duplicateValues" dxfId="666" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="669" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B64">
-    <cfRule type="duplicateValues" dxfId="665" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="668" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B58">
-    <cfRule type="duplicateValues" dxfId="664" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="667" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B64">
-    <cfRule type="duplicateValues" dxfId="663" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="666" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B90">
-    <cfRule type="duplicateValues" dxfId="662" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="665" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B90">
-    <cfRule type="duplicateValues" dxfId="661" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="664" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B90">
-    <cfRule type="duplicateValues" dxfId="660" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="663" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:B90">
-    <cfRule type="duplicateValues" dxfId="659" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="662" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="duplicateValues" dxfId="658" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="661" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="duplicateValues" dxfId="657" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="660" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="duplicateValues" dxfId="656" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="659" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="duplicateValues" dxfId="655" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="658" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="654" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="657" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="653" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="656" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="652" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="655" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="651" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="654" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B88">
-    <cfRule type="duplicateValues" dxfId="650" priority="1942"/>
+    <cfRule type="duplicateValues" dxfId="653" priority="1942"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="649" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="652" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="648" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="651" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="647" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="650" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="646" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="649" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="645" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="648" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B97">
-    <cfRule type="duplicateValues" dxfId="644" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="647" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B97">
-    <cfRule type="duplicateValues" dxfId="643" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="646" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B97">
-    <cfRule type="duplicateValues" dxfId="642" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="645" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B66">
-    <cfRule type="duplicateValues" dxfId="641" priority="2106"/>
+    <cfRule type="duplicateValues" dxfId="644" priority="2106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B98 A103:B1048576">
-    <cfRule type="duplicateValues" dxfId="640" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="643" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="639" priority="2111"/>
+    <cfRule type="duplicateValues" dxfId="642" priority="2111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B1048576 A16:B16 A1:B13">
-    <cfRule type="duplicateValues" dxfId="638" priority="2114"/>
+    <cfRule type="duplicateValues" dxfId="641" priority="2114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B1048576 A1:B16">
-    <cfRule type="duplicateValues" dxfId="637" priority="2118"/>
+    <cfRule type="duplicateValues" dxfId="640" priority="2118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B1048576 B1:B19">
-    <cfRule type="duplicateValues" dxfId="636" priority="2121"/>
+    <cfRule type="duplicateValues" dxfId="639" priority="2121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B1048576 B1:B40">
-    <cfRule type="duplicateValues" dxfId="635" priority="2124"/>
+    <cfRule type="duplicateValues" dxfId="638" priority="2124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B1048576">
-    <cfRule type="duplicateValues" dxfId="634" priority="2127"/>
+    <cfRule type="duplicateValues" dxfId="637" priority="2127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A1048576 A1:A53 A55:A56">
-    <cfRule type="duplicateValues" dxfId="633" priority="2129"/>
+    <cfRule type="duplicateValues" dxfId="636" priority="2129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93 B67:B88 B98">
-    <cfRule type="duplicateValues" dxfId="632" priority="2133"/>
+    <cfRule type="duplicateValues" dxfId="635" priority="2133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93 B1:B88 B98 B103:B1048576">
-    <cfRule type="duplicateValues" dxfId="631" priority="2136"/>
+    <cfRule type="duplicateValues" dxfId="634" priority="2136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93 B1:B91 B98 B103:B1048576">
-    <cfRule type="duplicateValues" dxfId="630" priority="2141"/>
+    <cfRule type="duplicateValues" dxfId="633" priority="2141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A98 A103:A1048576">
-    <cfRule type="duplicateValues" dxfId="629" priority="2146"/>
+    <cfRule type="duplicateValues" dxfId="632" priority="2146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B98 A103:B1048576">
-    <cfRule type="duplicateValues" dxfId="628" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="631" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B102">
-    <cfRule type="duplicateValues" dxfId="627" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="630" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B102">
-    <cfRule type="duplicateValues" dxfId="626" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="629" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B102">
-    <cfRule type="duplicateValues" dxfId="625" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="628" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:B102">
-    <cfRule type="duplicateValues" dxfId="624" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="627" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:A102">
-    <cfRule type="duplicateValues" dxfId="623" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="626" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:B102">
-    <cfRule type="duplicateValues" dxfId="622" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="625" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -45961,16 +46016,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="621" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="624" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="620" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="623" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="619" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="622" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="618" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="621" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -51589,60 +51644,60 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A30:A43 A1 A45:A49 A51:A109 A111:A1048576 A23:A28">
-    <cfRule type="duplicateValues" dxfId="617" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="620" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="616" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="619" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="615" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="618" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A13">
-    <cfRule type="duplicateValues" dxfId="614" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="617" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="613" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="616" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="612" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="615" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:B1048576 A1:B9 A11:B13">
-    <cfRule type="duplicateValues" dxfId="611" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="614" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B13 B23:B1048576">
-    <cfRule type="duplicateValues" dxfId="610" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="613" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A19">
-    <cfRule type="duplicateValues" dxfId="609" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="612" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B19">
-    <cfRule type="duplicateValues" dxfId="608" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="611" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B19">
-    <cfRule type="duplicateValues" dxfId="607" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="610" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A19 A23:A1048576">
-    <cfRule type="duplicateValues" dxfId="606" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="605" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="609" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="608" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B19 A23:B1048576">
-    <cfRule type="duplicateValues" dxfId="604" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="607" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A22">
-    <cfRule type="duplicateValues" dxfId="603" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="606" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B22">
-    <cfRule type="duplicateValues" dxfId="602" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="605" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B22">
-    <cfRule type="duplicateValues" dxfId="601" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="604" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A22">
-    <cfRule type="duplicateValues" dxfId="600" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="599" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="603" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="602" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B22">
-    <cfRule type="duplicateValues" dxfId="598" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="601" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -51654,9 +51709,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52428,440 +52483,440 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="597" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="600" priority="260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="596" priority="258"/>
-    <cfRule type="duplicateValues" dxfId="595" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="599" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="598" priority="259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="594" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="597" priority="257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="593" priority="252"/>
-    <cfRule type="duplicateValues" dxfId="592" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="596" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="595" priority="253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="591" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="594" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="590" priority="249"/>
-    <cfRule type="duplicateValues" dxfId="589" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="593" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="592" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="588" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="591" priority="248"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="587" priority="246"/>
-    <cfRule type="duplicateValues" dxfId="586" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="590" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="589" priority="247"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="585" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="588" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="584" priority="234"/>
-    <cfRule type="duplicateValues" dxfId="583" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="587" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="586" priority="235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="582" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="585" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="581" priority="231"/>
-    <cfRule type="duplicateValues" dxfId="580" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="584" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="583" priority="232"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="579" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="582" priority="230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="578" priority="228"/>
-    <cfRule type="duplicateValues" dxfId="577" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="581" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="580" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="576" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="579" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="575" priority="225"/>
-    <cfRule type="duplicateValues" dxfId="574" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="578" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="577" priority="226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="573" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="576" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="572" priority="222"/>
-    <cfRule type="duplicateValues" dxfId="571" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="575" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="574" priority="223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="570" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="573" priority="221"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="569" priority="219"/>
-    <cfRule type="duplicateValues" dxfId="568" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="572" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="571" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="567" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="570" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B1048576 A1:B10">
-    <cfRule type="duplicateValues" dxfId="566" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="569" priority="217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="565" priority="203"/>
-    <cfRule type="duplicateValues" dxfId="564" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="568" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="567" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="563" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="566" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="562" priority="200"/>
-    <cfRule type="duplicateValues" dxfId="561" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="565" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="564" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="560" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="563" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="duplicateValues" dxfId="559" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="562" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="558" priority="196"/>
-    <cfRule type="duplicateValues" dxfId="557" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="561" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="560" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="556" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="559" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B15">
-    <cfRule type="duplicateValues" dxfId="555" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="558" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B1048576 B1:B15">
-    <cfRule type="duplicateValues" dxfId="554" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="557" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="553" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="556" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="552" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="555" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="551" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="554" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="550" priority="173"/>
-    <cfRule type="duplicateValues" dxfId="549" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="553" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="552" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="548" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="551" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="547" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="546" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="550" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="549" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="545" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="548" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="544" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="547" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="543" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="546" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="542" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="545" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="541" priority="162"/>
-    <cfRule type="duplicateValues" dxfId="540" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="544" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="543" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="539" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="542" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="duplicateValues" dxfId="538" priority="159"/>
-    <cfRule type="duplicateValues" dxfId="537" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="541" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="540" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B18">
-    <cfRule type="duplicateValues" dxfId="536" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="539" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="535" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="538" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="534" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="537" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="533" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="536" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="duplicateValues" dxfId="532" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="535" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="531" priority="152"/>
-    <cfRule type="duplicateValues" dxfId="530" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="534" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="533" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F18">
-    <cfRule type="duplicateValues" dxfId="529" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="532" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A25">
-    <cfRule type="duplicateValues" dxfId="528" priority="663"/>
-    <cfRule type="duplicateValues" dxfId="527" priority="664"/>
+    <cfRule type="duplicateValues" dxfId="531" priority="663"/>
+    <cfRule type="duplicateValues" dxfId="530" priority="664"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B25">
-    <cfRule type="duplicateValues" dxfId="526" priority="667"/>
+    <cfRule type="duplicateValues" dxfId="529" priority="667"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B25">
-    <cfRule type="duplicateValues" dxfId="525" priority="669"/>
+    <cfRule type="duplicateValues" dxfId="528" priority="669"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F25">
-    <cfRule type="duplicateValues" dxfId="524" priority="675"/>
-    <cfRule type="duplicateValues" dxfId="523" priority="676"/>
+    <cfRule type="duplicateValues" dxfId="527" priority="675"/>
+    <cfRule type="duplicateValues" dxfId="526" priority="676"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F25">
-    <cfRule type="duplicateValues" dxfId="522" priority="679"/>
+    <cfRule type="duplicateValues" dxfId="525" priority="679"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="521" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="520" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="524" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="523" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="duplicateValues" dxfId="519" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="522" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="518" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="521" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:F26">
-    <cfRule type="duplicateValues" dxfId="517" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="516" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="520" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="519" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:F26">
-    <cfRule type="duplicateValues" dxfId="515" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="518" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B1048576 B1:B26">
-    <cfRule type="duplicateValues" dxfId="514" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="517" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="513" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="512" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="516" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="515" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27">
-    <cfRule type="duplicateValues" dxfId="511" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="514" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="510" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="513" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:F27">
-    <cfRule type="duplicateValues" dxfId="509" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="508" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="512" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="511" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:F27">
-    <cfRule type="duplicateValues" dxfId="507" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="510" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="506" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="509" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A29">
-    <cfRule type="duplicateValues" dxfId="505" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="504" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="508" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="507" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B29">
-    <cfRule type="duplicateValues" dxfId="503" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="506" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="duplicateValues" dxfId="502" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="505" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:F29">
-    <cfRule type="duplicateValues" dxfId="501" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="500" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="504" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="503" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:F29">
-    <cfRule type="duplicateValues" dxfId="499" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="502" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="duplicateValues" dxfId="498" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="501" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="497" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="496" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="500" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="499" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31 B30">
-    <cfRule type="duplicateValues" dxfId="495" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="498" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="494" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="497" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="493" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="496" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="492" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="495" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B31">
-    <cfRule type="duplicateValues" dxfId="491" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="494" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="490" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="489" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="493" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="492" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="488" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="491" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="487" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="486" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="490" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="489" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="485" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="488" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="484" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="487" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="483" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="486" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="482" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="485" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="481" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="484" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="480" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="483" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="479" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="482" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="478" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="481" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="477" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="480" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="476" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="479" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="475" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="478" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="474" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="477" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="473" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="472" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="476" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="475" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="471" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="474" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="470" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="473" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:F33">
-    <cfRule type="duplicateValues" dxfId="469" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="468" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="472" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="471" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:F33">
-    <cfRule type="duplicateValues" dxfId="467" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="470" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="466" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="469" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="465" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="468" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="464" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="467" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="463" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="466" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="462" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="465" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="461" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="464" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="460" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="463" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="459" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="462" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="458" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="461" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="457" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="460" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B1048576 B1:B35">
-    <cfRule type="duplicateValues" dxfId="456" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="459" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="455" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="458" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="454" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="457" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="453" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="456" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="452" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="455" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="451" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="454" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="450" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="453" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="449" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="452" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="448" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="451" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="447" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="450" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A42">
-    <cfRule type="duplicateValues" dxfId="446" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="449" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A42">
-    <cfRule type="duplicateValues" dxfId="445" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="448" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="duplicateValues" dxfId="444" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="447" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A1048576 A1:A43">
-    <cfRule type="duplicateValues" dxfId="443" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="446" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="442" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="445" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="441" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="444" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="440" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="443" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="439" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="442" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="438" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="441" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B47">
-    <cfRule type="duplicateValues" dxfId="437" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="440" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47">
-    <cfRule type="duplicateValues" dxfId="436" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="439" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="435" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="438" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="434" priority="2202"/>
+    <cfRule type="duplicateValues" dxfId="437" priority="2202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="433" priority="2205"/>
+    <cfRule type="duplicateValues" dxfId="436" priority="2205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="432" priority="2206"/>
+    <cfRule type="duplicateValues" dxfId="435" priority="2206"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -55194,1220 +55249,1220 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B295:B1048576 B260:B261 B142 B1 B37 B240">
-    <cfRule type="duplicateValues" dxfId="431" priority="591"/>
+    <cfRule type="duplicateValues" dxfId="434" priority="591"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="duplicateValues" dxfId="430" priority="790"/>
+    <cfRule type="duplicateValues" dxfId="433" priority="790"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B16 B18:B19">
-    <cfRule type="duplicateValues" dxfId="429" priority="560"/>
+    <cfRule type="duplicateValues" dxfId="432" priority="560"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B64">
-    <cfRule type="duplicateValues" dxfId="428" priority="528"/>
+    <cfRule type="duplicateValues" dxfId="431" priority="528"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B66">
-    <cfRule type="duplicateValues" dxfId="427" priority="525"/>
+    <cfRule type="duplicateValues" dxfId="430" priority="525"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B73">
-    <cfRule type="duplicateValues" dxfId="426" priority="521"/>
+    <cfRule type="duplicateValues" dxfId="429" priority="521"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="duplicateValues" dxfId="425" priority="519"/>
+    <cfRule type="duplicateValues" dxfId="428" priority="519"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="duplicateValues" dxfId="424" priority="517"/>
+    <cfRule type="duplicateValues" dxfId="427" priority="517"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="duplicateValues" dxfId="423" priority="515"/>
+    <cfRule type="duplicateValues" dxfId="426" priority="515"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="422" priority="511"/>
+    <cfRule type="duplicateValues" dxfId="425" priority="511"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B155 A158:B158 A143:A151 A153:A155">
-    <cfRule type="duplicateValues" dxfId="421" priority="500"/>
+    <cfRule type="duplicateValues" dxfId="424" priority="500"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B158 A143:A151 A153:A158">
-    <cfRule type="duplicateValues" dxfId="420" priority="499"/>
+    <cfRule type="duplicateValues" dxfId="423" priority="499"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B241:B248 A241:A245 A247:A248">
-    <cfRule type="duplicateValues" dxfId="419" priority="490"/>
+    <cfRule type="duplicateValues" dxfId="422" priority="490"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B262">
-    <cfRule type="duplicateValues" dxfId="418" priority="485"/>
+    <cfRule type="duplicateValues" dxfId="421" priority="485"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B263">
-    <cfRule type="duplicateValues" dxfId="417" priority="482"/>
+    <cfRule type="duplicateValues" dxfId="420" priority="482"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B264">
-    <cfRule type="duplicateValues" dxfId="416" priority="479"/>
+    <cfRule type="duplicateValues" dxfId="419" priority="479"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B265">
-    <cfRule type="duplicateValues" dxfId="415" priority="476"/>
+    <cfRule type="duplicateValues" dxfId="418" priority="476"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B266">
-    <cfRule type="duplicateValues" dxfId="414" priority="473"/>
+    <cfRule type="duplicateValues" dxfId="417" priority="473"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B267">
-    <cfRule type="duplicateValues" dxfId="413" priority="470"/>
+    <cfRule type="duplicateValues" dxfId="416" priority="470"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B268">
-    <cfRule type="duplicateValues" dxfId="412" priority="467"/>
+    <cfRule type="duplicateValues" dxfId="415" priority="467"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B269">
-    <cfRule type="duplicateValues" dxfId="411" priority="464"/>
+    <cfRule type="duplicateValues" dxfId="414" priority="464"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B270">
-    <cfRule type="duplicateValues" dxfId="410" priority="461"/>
+    <cfRule type="duplicateValues" dxfId="413" priority="461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B271">
-    <cfRule type="duplicateValues" dxfId="409" priority="457"/>
+    <cfRule type="duplicateValues" dxfId="412" priority="457"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B272">
-    <cfRule type="duplicateValues" dxfId="408" priority="454"/>
+    <cfRule type="duplicateValues" dxfId="411" priority="454"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B142:B161 B1 B3:B19 B240:B249 B37:B40 B42:B76 B260:B272">
-    <cfRule type="duplicateValues" dxfId="407" priority="449"/>
+    <cfRule type="duplicateValues" dxfId="410" priority="449"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="duplicateValues" dxfId="406" priority="447"/>
+    <cfRule type="duplicateValues" dxfId="409" priority="447"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="405" priority="444"/>
+    <cfRule type="duplicateValues" dxfId="408" priority="444"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="404" priority="443"/>
+    <cfRule type="duplicateValues" dxfId="407" priority="443"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B275">
-    <cfRule type="duplicateValues" dxfId="403" priority="442"/>
+    <cfRule type="duplicateValues" dxfId="406" priority="442"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B275">
-    <cfRule type="duplicateValues" dxfId="402" priority="441"/>
+    <cfRule type="duplicateValues" dxfId="405" priority="441"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274">
-    <cfRule type="duplicateValues" dxfId="401" priority="440"/>
+    <cfRule type="duplicateValues" dxfId="404" priority="440"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274">
-    <cfRule type="duplicateValues" dxfId="400" priority="439"/>
+    <cfRule type="duplicateValues" dxfId="403" priority="439"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B275">
-    <cfRule type="duplicateValues" dxfId="399" priority="438"/>
+    <cfRule type="duplicateValues" dxfId="402" priority="438"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:B80">
-    <cfRule type="duplicateValues" dxfId="398" priority="426"/>
+    <cfRule type="duplicateValues" dxfId="401" priority="426"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:B80">
-    <cfRule type="duplicateValues" dxfId="397" priority="425"/>
+    <cfRule type="duplicateValues" dxfId="400" priority="425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="duplicateValues" dxfId="396" priority="424"/>
+    <cfRule type="duplicateValues" dxfId="399" priority="424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="395" priority="419"/>
+    <cfRule type="duplicateValues" dxfId="398" priority="419"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="394" priority="418"/>
+    <cfRule type="duplicateValues" dxfId="397" priority="418"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="393" priority="417"/>
+    <cfRule type="duplicateValues" dxfId="396" priority="417"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="392" priority="414"/>
+    <cfRule type="duplicateValues" dxfId="395" priority="414"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="391" priority="413"/>
+    <cfRule type="duplicateValues" dxfId="394" priority="413"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276">
-    <cfRule type="duplicateValues" dxfId="390" priority="412"/>
+    <cfRule type="duplicateValues" dxfId="393" priority="412"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B1:B19 B240:B249 B37:B40 B142:B161 B42:B81 B260:B272 B274:B276">
-    <cfRule type="duplicateValues" dxfId="389" priority="408"/>
+    <cfRule type="duplicateValues" dxfId="392" priority="408"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:B278">
-    <cfRule type="duplicateValues" dxfId="388" priority="406"/>
-    <cfRule type="duplicateValues" dxfId="387" priority="407"/>
+    <cfRule type="duplicateValues" dxfId="391" priority="406"/>
+    <cfRule type="duplicateValues" dxfId="390" priority="407"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277">
-    <cfRule type="duplicateValues" dxfId="386" priority="404"/>
+    <cfRule type="duplicateValues" dxfId="389" priority="404"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B278">
-    <cfRule type="duplicateValues" dxfId="385" priority="403"/>
+    <cfRule type="duplicateValues" dxfId="388" priority="403"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277:B278">
-    <cfRule type="duplicateValues" dxfId="384" priority="402"/>
+    <cfRule type="duplicateValues" dxfId="387" priority="402"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277:B278">
-    <cfRule type="duplicateValues" dxfId="383" priority="401"/>
+    <cfRule type="duplicateValues" dxfId="386" priority="401"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:B163">
-    <cfRule type="duplicateValues" dxfId="382" priority="392"/>
+    <cfRule type="duplicateValues" dxfId="385" priority="392"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="duplicateValues" dxfId="381" priority="397"/>
+    <cfRule type="duplicateValues" dxfId="384" priority="397"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="duplicateValues" dxfId="380" priority="388"/>
+    <cfRule type="duplicateValues" dxfId="383" priority="388"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="duplicateValues" dxfId="379" priority="390"/>
+    <cfRule type="duplicateValues" dxfId="382" priority="390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="378" priority="377"/>
+    <cfRule type="duplicateValues" dxfId="381" priority="377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="377" priority="376"/>
+    <cfRule type="duplicateValues" dxfId="380" priority="376"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="376" priority="375"/>
+    <cfRule type="duplicateValues" dxfId="379" priority="375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="375" priority="374"/>
+    <cfRule type="duplicateValues" dxfId="378" priority="374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="duplicateValues" dxfId="374" priority="373"/>
+    <cfRule type="duplicateValues" dxfId="377" priority="373"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B21">
-    <cfRule type="duplicateValues" dxfId="373" priority="371"/>
+    <cfRule type="duplicateValues" dxfId="376" priority="371"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="duplicateValues" dxfId="372" priority="368"/>
+    <cfRule type="duplicateValues" dxfId="375" priority="368"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B240:B249 B37:B40 B1:B21 B142:B164 B42:B83 B260:B272 B274:B278">
-    <cfRule type="duplicateValues" dxfId="371" priority="367"/>
+    <cfRule type="duplicateValues" dxfId="374" priority="367"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="duplicateValues" dxfId="370" priority="364"/>
+    <cfRule type="duplicateValues" dxfId="373" priority="364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="369" priority="361"/>
+    <cfRule type="duplicateValues" dxfId="372" priority="361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165">
-    <cfRule type="duplicateValues" dxfId="368" priority="356"/>
+    <cfRule type="duplicateValues" dxfId="371" priority="356"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165">
-    <cfRule type="duplicateValues" dxfId="367" priority="358"/>
+    <cfRule type="duplicateValues" dxfId="370" priority="358"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279:B279">
-    <cfRule type="duplicateValues" dxfId="366" priority="343"/>
-    <cfRule type="duplicateValues" dxfId="365" priority="344"/>
+    <cfRule type="duplicateValues" dxfId="369" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="368" priority="344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="364" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="367" priority="341"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="363" priority="340"/>
+    <cfRule type="duplicateValues" dxfId="366" priority="340"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B279">
-    <cfRule type="duplicateValues" dxfId="362" priority="339"/>
+    <cfRule type="duplicateValues" dxfId="365" priority="339"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152">
-    <cfRule type="duplicateValues" dxfId="361" priority="325"/>
+    <cfRule type="duplicateValues" dxfId="364" priority="325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="360" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="363" priority="321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="359" priority="320"/>
+    <cfRule type="duplicateValues" dxfId="362" priority="320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="358" priority="319"/>
+    <cfRule type="duplicateValues" dxfId="361" priority="319"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="357" priority="318"/>
+    <cfRule type="duplicateValues" dxfId="360" priority="318"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="356" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="359" priority="311"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="355" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="358" priority="312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="354" priority="313"/>
+    <cfRule type="duplicateValues" dxfId="357" priority="313"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="353" priority="314"/>
+    <cfRule type="duplicateValues" dxfId="356" priority="314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="352" priority="315"/>
+    <cfRule type="duplicateValues" dxfId="355" priority="315"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="351" priority="316"/>
+    <cfRule type="duplicateValues" dxfId="354" priority="316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="350" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="353" priority="306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="349" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="352" priority="305"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="348" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="351" priority="304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="347" priority="301"/>
+    <cfRule type="duplicateValues" dxfId="350" priority="301"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86 A87:B87">
-    <cfRule type="duplicateValues" dxfId="346" priority="294"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="345" priority="296"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="296"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="344" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="343" priority="298"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="342" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="345" priority="299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B87">
-    <cfRule type="duplicateValues" dxfId="341" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="344" priority="300"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="340" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="343" priority="273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B107">
-    <cfRule type="duplicateValues" dxfId="339" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B109">
-    <cfRule type="duplicateValues" dxfId="338" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="duplicateValues" dxfId="337" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="340" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B116">
-    <cfRule type="duplicateValues" dxfId="336" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B116">
-    <cfRule type="duplicateValues" dxfId="335" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116">
-    <cfRule type="duplicateValues" dxfId="334" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="333" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="332" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117">
-    <cfRule type="duplicateValues" dxfId="331" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="330" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="329" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="328" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118 B101:B109">
-    <cfRule type="duplicateValues" dxfId="327" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="277"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B121">
-    <cfRule type="duplicateValues" dxfId="326" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="278"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="325" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="324" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="327" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B121">
-    <cfRule type="duplicateValues" dxfId="323" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B237 B166">
-    <cfRule type="duplicateValues" dxfId="322" priority="1035"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="1035"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B195:B197">
-    <cfRule type="duplicateValues" dxfId="321" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="320" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="319" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B197">
-    <cfRule type="duplicateValues" dxfId="318" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168:B180">
-    <cfRule type="duplicateValues" dxfId="317" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="316" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="315" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B185">
-    <cfRule type="duplicateValues" dxfId="314" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181">
-    <cfRule type="duplicateValues" dxfId="313" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:B1048576 A240:A245 B142:B161 A1:B19 A142:A151 A37:B40 A153:A161 A247:A249 B240:B249 A42:B80 A260:B272 A274:B275 A273">
-    <cfRule type="duplicateValues" dxfId="312" priority="1087"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="1087"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B253:B254">
-    <cfRule type="duplicateValues" dxfId="311" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B250:B254">
-    <cfRule type="duplicateValues" dxfId="310" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:B285">
-    <cfRule type="duplicateValues" dxfId="309" priority="226"/>
-    <cfRule type="duplicateValues" dxfId="308" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B281:B285">
-    <cfRule type="duplicateValues" dxfId="307" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:B1048576 B1:B29 B37:B121 B142:B197 B237:B254 B260:B272 B274:B285">
-    <cfRule type="duplicateValues" dxfId="306" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="duplicateValues" dxfId="305" priority="1136"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="1136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167:B197">
-    <cfRule type="duplicateValues" dxfId="304" priority="1138"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="1138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286:B286">
-    <cfRule type="duplicateValues" dxfId="303" priority="217"/>
-    <cfRule type="duplicateValues" dxfId="302" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B286">
-    <cfRule type="duplicateValues" dxfId="301" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B286">
-    <cfRule type="duplicateValues" dxfId="300" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286:B286">
-    <cfRule type="duplicateValues" dxfId="299" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130 A122:B122">
-    <cfRule type="duplicateValues" dxfId="298" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="297" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122 B130">
-    <cfRule type="duplicateValues" dxfId="296" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="295" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="294" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="293" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="292" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="291" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B127 A128:B128">
-    <cfRule type="duplicateValues" dxfId="290" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="289" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="288" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="287" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="286" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="285" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="284" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B128">
-    <cfRule type="duplicateValues" dxfId="283" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:B129">
-    <cfRule type="duplicateValues" dxfId="282" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="duplicateValues" dxfId="281" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B200:B205">
-    <cfRule type="duplicateValues" dxfId="280" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B200:B205">
-    <cfRule type="duplicateValues" dxfId="279" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B199">
-    <cfRule type="duplicateValues" dxfId="278" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B205">
-    <cfRule type="duplicateValues" dxfId="277" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287 A288:B288">
-    <cfRule type="duplicateValues" dxfId="276" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="275" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="274" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B288">
-    <cfRule type="duplicateValues" dxfId="273" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287:B288">
-    <cfRule type="duplicateValues" dxfId="272" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287">
-    <cfRule type="duplicateValues" dxfId="271" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="270" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="269" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="268" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="267" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="266" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="265" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="264" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289">
-    <cfRule type="duplicateValues" dxfId="263" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290:B290">
-    <cfRule type="duplicateValues" dxfId="262" priority="175"/>
-    <cfRule type="duplicateValues" dxfId="261" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B290">
-    <cfRule type="duplicateValues" dxfId="260" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="259" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="258" priority="1139"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="1139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="257" priority="1140"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="1140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="256" priority="1141"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="1141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="255" priority="1142"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="1142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="254" priority="1143"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="1143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="253" priority="1144"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="1144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="252" priority="1145"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="1145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 A16 A18:A19">
-    <cfRule type="duplicateValues" dxfId="251" priority="1203"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="1203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="250" priority="1206"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="1206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="249" priority="1207"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="1207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="248" priority="1208"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="1208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="247" priority="1209"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="1209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14 A16:B16 A18:B19">
-    <cfRule type="duplicateValues" dxfId="246" priority="1217"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="1217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B14">
-    <cfRule type="duplicateValues" dxfId="245" priority="1223"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="1223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A14">
-    <cfRule type="duplicateValues" dxfId="244" priority="1225"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="1225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="243" priority="1226"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="1226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="242" priority="1228"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="1228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="241" priority="1229"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="1229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A64">
-    <cfRule type="duplicateValues" dxfId="240" priority="1230"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="1230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:B73">
-    <cfRule type="duplicateValues" dxfId="239" priority="1231"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="1231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:B74">
-    <cfRule type="duplicateValues" dxfId="238" priority="1233"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="1233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="duplicateValues" dxfId="237" priority="1235"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="1235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A156:B157">
-    <cfRule type="duplicateValues" dxfId="236" priority="1243"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="1243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A241">
-    <cfRule type="duplicateValues" dxfId="235" priority="1245"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="1245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A262">
-    <cfRule type="duplicateValues" dxfId="234" priority="1248"/>
-    <cfRule type="duplicateValues" dxfId="233" priority="1249"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="1248"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="1249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A263">
-    <cfRule type="duplicateValues" dxfId="232" priority="1250"/>
-    <cfRule type="duplicateValues" dxfId="231" priority="1251"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="1250"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="1251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A264">
-    <cfRule type="duplicateValues" dxfId="230" priority="1252"/>
-    <cfRule type="duplicateValues" dxfId="229" priority="1253"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="1252"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="1253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A265">
-    <cfRule type="duplicateValues" dxfId="228" priority="1254"/>
-    <cfRule type="duplicateValues" dxfId="227" priority="1255"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="1254"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="1255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A266">
-    <cfRule type="duplicateValues" dxfId="226" priority="1256"/>
-    <cfRule type="duplicateValues" dxfId="225" priority="1257"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="1256"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="1257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A267">
-    <cfRule type="duplicateValues" dxfId="224" priority="1258"/>
-    <cfRule type="duplicateValues" dxfId="223" priority="1259"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="1258"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="1259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A268">
-    <cfRule type="duplicateValues" dxfId="222" priority="1260"/>
-    <cfRule type="duplicateValues" dxfId="221" priority="1261"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="1260"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="1261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269">
-    <cfRule type="duplicateValues" dxfId="220" priority="1262"/>
-    <cfRule type="duplicateValues" dxfId="219" priority="1263"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="1262"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="1263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A270">
-    <cfRule type="duplicateValues" dxfId="218" priority="1264"/>
-    <cfRule type="duplicateValues" dxfId="217" priority="1265"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="1264"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="1265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A262:B270">
-    <cfRule type="duplicateValues" dxfId="216" priority="1266"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="1266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A271">
-    <cfRule type="duplicateValues" dxfId="215" priority="1268"/>
-    <cfRule type="duplicateValues" dxfId="214" priority="1269"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="1268"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="1269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A272">
-    <cfRule type="duplicateValues" dxfId="213" priority="1270"/>
-    <cfRule type="duplicateValues" dxfId="212" priority="1271"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="1270"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="1271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A272:B272">
-    <cfRule type="duplicateValues" dxfId="211" priority="1272"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="1272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A273">
-    <cfRule type="duplicateValues" dxfId="210" priority="1274"/>
-    <cfRule type="duplicateValues" dxfId="209" priority="1275"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="1274"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="1275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="duplicateValues" dxfId="208" priority="1283"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="1283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A274">
-    <cfRule type="duplicateValues" dxfId="207" priority="1285"/>
-    <cfRule type="duplicateValues" dxfId="206" priority="1286"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="1285"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="1286"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A274">
-    <cfRule type="duplicateValues" dxfId="205" priority="1287"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="1287"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A275">
-    <cfRule type="duplicateValues" dxfId="204" priority="1288"/>
-    <cfRule type="duplicateValues" dxfId="203" priority="1289"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="1288"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="1289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A275">
-    <cfRule type="duplicateValues" dxfId="202" priority="1290"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="1290"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="duplicateValues" dxfId="201" priority="1291"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="1291"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="duplicateValues" dxfId="200" priority="1292"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="1292"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A276">
-    <cfRule type="duplicateValues" dxfId="199" priority="1293"/>
-    <cfRule type="duplicateValues" dxfId="198" priority="1294"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="1293"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="1294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A276">
-    <cfRule type="duplicateValues" dxfId="197" priority="1295"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="1295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:A278">
-    <cfRule type="duplicateValues" dxfId="196" priority="1302"/>
-    <cfRule type="duplicateValues" dxfId="195" priority="1303"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="1302"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="1303"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:B278">
-    <cfRule type="duplicateValues" dxfId="194" priority="1304"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="1304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:B163">
-    <cfRule type="duplicateValues" dxfId="193" priority="1310"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="1310"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B83">
-    <cfRule type="duplicateValues" dxfId="192" priority="1314"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="1314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A21">
-    <cfRule type="duplicateValues" dxfId="191" priority="1316"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="1316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:A1048576 A240:A245 A37:A40 A1:A21 A142:A151 A153:A164 A247:A249 A42:A83 A260:A278">
-    <cfRule type="duplicateValues" dxfId="190" priority="1327"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="1327"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279">
-    <cfRule type="duplicateValues" dxfId="189" priority="1342"/>
-    <cfRule type="duplicateValues" dxfId="188" priority="1343"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="1342"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="1343"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279:B279">
-    <cfRule type="duplicateValues" dxfId="187" priority="1344"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="1344"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="186" priority="1350"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="1350"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="185" priority="1351"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="1351"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246">
-    <cfRule type="duplicateValues" dxfId="184" priority="1353"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="1353"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="183" priority="1354"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="1354"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="182" priority="1355"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="1355"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="181" priority="1361"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="1361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:A85">
-    <cfRule type="duplicateValues" dxfId="180" priority="1362"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="1362"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A280">
-    <cfRule type="duplicateValues" dxfId="179" priority="1363"/>
-    <cfRule type="duplicateValues" dxfId="178" priority="1364"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="1363"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="1364"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A280:B280">
-    <cfRule type="duplicateValues" dxfId="177" priority="1365"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="1365"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="176" priority="1369"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="1369"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="175" priority="1373"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="1373"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A29">
-    <cfRule type="duplicateValues" dxfId="174" priority="1374"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="1374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="173" priority="1375"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="1375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A122">
-    <cfRule type="duplicateValues" dxfId="172" priority="1377"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="1377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A122">
-    <cfRule type="duplicateValues" dxfId="171" priority="1378"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="1378"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:A96">
-    <cfRule type="duplicateValues" dxfId="170" priority="1379"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="1379"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97:A98">
-    <cfRule type="duplicateValues" dxfId="169" priority="1380"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="1380"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="168" priority="1381"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="1381"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A193 A186:A191 A195:A196">
-    <cfRule type="duplicateValues" dxfId="167" priority="1383"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="1383"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A197">
-    <cfRule type="duplicateValues" dxfId="166" priority="1385"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="1385"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192">
-    <cfRule type="duplicateValues" dxfId="165" priority="1386"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="1386"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A193 A195:A197">
-    <cfRule type="duplicateValues" dxfId="164" priority="1387"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="1387"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181:A185">
-    <cfRule type="duplicateValues" dxfId="163" priority="1389"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="1389"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181:A185">
-    <cfRule type="duplicateValues" dxfId="162" priority="1390"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="1390"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237">
-    <cfRule type="duplicateValues" dxfId="161" priority="1393"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="1393"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:B1048576 A260:B261 A142:B142 A1:B1 A37:B37 A240:B240">
-    <cfRule type="duplicateValues" dxfId="160" priority="1411"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="1411"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A253:A254">
-    <cfRule type="duplicateValues" dxfId="159" priority="1423"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="1423"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250:A254">
-    <cfRule type="duplicateValues" dxfId="158" priority="1424"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="1424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250:A254">
-    <cfRule type="duplicateValues" dxfId="157" priority="1425"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="1425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:A285">
-    <cfRule type="duplicateValues" dxfId="156" priority="1426"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="1427"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="1426"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="1427"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281:B285">
-    <cfRule type="duplicateValues" dxfId="154" priority="1428"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="1428"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295:A1048576 A1:A29 A142:A193 A37:A122 A237:A254 A260:A285 A195:A197">
-    <cfRule type="duplicateValues" dxfId="153" priority="1440"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="1440"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286">
-    <cfRule type="duplicateValues" dxfId="152" priority="1445"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="1446"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="1445"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="1446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286">
-    <cfRule type="duplicateValues" dxfId="150" priority="1455"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="1455"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="149" priority="1456"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="1456"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="148" priority="1460"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="1460"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="147" priority="1463"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="1463"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A127">
-    <cfRule type="duplicateValues" dxfId="146" priority="1464"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="1464"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="145" priority="1465"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="1465"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="144" priority="1466"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="1466"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="143" priority="1471"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="1471"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="142" priority="1472"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="1472"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A288">
-    <cfRule type="duplicateValues" dxfId="141" priority="1475"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="1476"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="1475"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="1476"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="duplicateValues" dxfId="139" priority="1479"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="1480"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="1479"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="1480"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="duplicateValues" dxfId="137" priority="1481"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="1481"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A289">
-    <cfRule type="duplicateValues" dxfId="136" priority="1485"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="1485"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A289">
-    <cfRule type="duplicateValues" dxfId="135" priority="1486"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="1486"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290">
-    <cfRule type="duplicateValues" dxfId="134" priority="1487"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="1488"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="1487"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="1488"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290:B290">
-    <cfRule type="duplicateValues" dxfId="132" priority="1489"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="1489"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="131" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="130" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="duplicateValues" dxfId="129" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="duplicateValues" dxfId="128" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="127" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="126" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32 A35">
-    <cfRule type="duplicateValues" dxfId="125" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32 A35">
-    <cfRule type="duplicateValues" dxfId="124" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32 A35:B35">
-    <cfRule type="duplicateValues" dxfId="123" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B32 A35:B35">
-    <cfRule type="duplicateValues" dxfId="122" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32 B35">
-    <cfRule type="duplicateValues" dxfId="121" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32 B35">
-    <cfRule type="duplicateValues" dxfId="120" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="119" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="118" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="117" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135">
-    <cfRule type="duplicateValues" dxfId="116" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B132">
-    <cfRule type="duplicateValues" dxfId="115" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:F135 A136">
-    <cfRule type="duplicateValues" dxfId="114" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:G135 A136:B136">
-    <cfRule type="duplicateValues" dxfId="113" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G131:G135 B136">
-    <cfRule type="duplicateValues" dxfId="112" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:F135 A136">
-    <cfRule type="duplicateValues" dxfId="111" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G131:G141 B131:B136">
-    <cfRule type="duplicateValues" dxfId="110" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:A259">
-    <cfRule type="duplicateValues" dxfId="109" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:B259">
-    <cfRule type="duplicateValues" dxfId="108" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255:B259">
-    <cfRule type="duplicateValues" dxfId="107" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:A259">
-    <cfRule type="duplicateValues" dxfId="106" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="105" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="104" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="duplicateValues" dxfId="103" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A291">
-    <cfRule type="duplicateValues" dxfId="102" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A291">
-    <cfRule type="duplicateValues" dxfId="101" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="100" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="99" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="duplicateValues" dxfId="98" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A292">
-    <cfRule type="duplicateValues" dxfId="97" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A292">
-    <cfRule type="duplicateValues" dxfId="96" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291:B292">
-    <cfRule type="duplicateValues" dxfId="95" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B292 B1:B32 B237:B272 B35:B136 B142:B209 B295:B1048576">
-    <cfRule type="duplicateValues" dxfId="94" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237:A292 A1:A32 A35:A136 A142:A193 A195:A209 A295:A1048576">
-    <cfRule type="duplicateValues" dxfId="93" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="92" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="91" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="90" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="89" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="88" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="87" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="duplicateValues" dxfId="86" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="85" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="84" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="83" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="duplicateValues" dxfId="82" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="81" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="80" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="79" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="duplicateValues" dxfId="78" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:B137">
-    <cfRule type="duplicateValues" dxfId="77" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="76" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="75" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="74" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="73" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="72" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="duplicateValues" dxfId="71" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="70" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="duplicateValues" dxfId="69" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138:B138">
-    <cfRule type="duplicateValues" dxfId="68" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="67" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="66" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="65" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="64" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="63" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="duplicateValues" dxfId="62" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="61" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="60" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="59" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="58" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B40 B42:B66">
-    <cfRule type="duplicateValues" dxfId="57" priority="1526"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="1526"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B40 A42:B66">
-    <cfRule type="duplicateValues" dxfId="56" priority="1565"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="1565"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="55" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="54" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="53" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B231">
-    <cfRule type="duplicateValues" dxfId="52" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232 B234:B236">
-    <cfRule type="duplicateValues" dxfId="51" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="50" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="49" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="duplicateValues" dxfId="48" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B234:B292 B1:B33 B295:B1048576 B35:B138 B142:B232">
-    <cfRule type="duplicateValues" dxfId="47" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:A292 A1:A33 A295:A1048576 A35:A138 A142:A232">
-    <cfRule type="duplicateValues" dxfId="46" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A135 F136:F141">
-    <cfRule type="duplicateValues" dxfId="45" priority="1767"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="1767"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B135 F136:G141">
-    <cfRule type="duplicateValues" dxfId="44" priority="1770"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="1770"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B135 G136:G141">
-    <cfRule type="duplicateValues" dxfId="43" priority="1773"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="1773"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A135 F136:F141">
-    <cfRule type="duplicateValues" dxfId="42" priority="1776"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1776"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B138">
-    <cfRule type="duplicateValues" dxfId="41" priority="1798"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="1798"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B206:B209">
-    <cfRule type="duplicateValues" dxfId="40" priority="1866"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="1866"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211:B229">
-    <cfRule type="duplicateValues" dxfId="39" priority="1942"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="1942"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211:B232 B234:B236">
-    <cfRule type="duplicateValues" dxfId="38" priority="1944"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1944"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="37" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="36" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="35" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="34" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="33" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="32" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="31" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A293:A294">
-    <cfRule type="duplicateValues" dxfId="29" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A293:A294">
-    <cfRule type="duplicateValues" dxfId="28" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B294">
-    <cfRule type="duplicateValues" dxfId="27" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="duplicateValues" dxfId="23" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:B141">
-    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B141">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A141">
-    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -62370,7 +62425,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -62458,7 +62513,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
